--- a/inst/diseases-list.xlsx
+++ b/inst/diseases-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\GitHub\EFSA-disease-profiles\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76A11494-5473-4A2A-A461-DC82BA270156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E193B3-4DAA-40DB-9EA4-0AD31A56503C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" activeTab="2" xr2:uid="{0ACB5481-8904-4757-9496-FA4100A86F68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{0ACB5481-8904-4757-9496-FA4100A86F68}"/>
   </bookViews>
   <sheets>
     <sheet name="All diseases CLEAN LIST" sheetId="1" r:id="rId1"/>
@@ -4550,7 +4550,7 @@
   <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4562,7 +4562,7 @@
     <col min="10" max="10" width="5.5703125" style="53" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="12"/>
     <col min="15" max="19" width="9.140625" style="3"/>
     <col min="20" max="20" width="2" style="3" bestFit="1" customWidth="1"/>
@@ -7663,12 +7663,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="52ea4a7c-6901-4db7-900e-b45097d0ff93" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7889,17 +7888,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="52ea4a7c-6901-4db7-900e-b45097d0ff93" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACF7FD7-0294-44CF-A08E-BCEC28737BB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBDA711-F404-4C5B-BB2C-544733B5993A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52ea4a7c-6901-4db7-900e-b45097d0ff93"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7924,11 +7926,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBDA711-F404-4C5B-BB2C-544733B5993A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACF7FD7-0294-44CF-A08E-BCEC28737BB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52ea4a7c-6901-4db7-900e-b45097d0ff93"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/diseases-list.xlsx
+++ b/inst/diseases-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\GitHub\EFSA-disease-profiles\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E193B3-4DAA-40DB-9EA4-0AD31A56503C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99B0E9A-3FC4-430C-BD80-71DCEB9E9E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{0ACB5481-8904-4757-9496-FA4100A86F68}"/>
   </bookViews>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="313">
   <si>
     <t>Disease</t>
   </si>
@@ -1100,6 +1100,45 @@
   </si>
   <si>
     <t>NotZoonotic</t>
+  </si>
+  <si>
+    <t>https://www.who.int/health-topics/rift-valley-fever</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/glanders/index.html</t>
+  </si>
+  <si>
+    <t>https://www.who.int/news-room/fact-sheets/detail/influenza-(avian-and-other-zoonotic)</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/vhf/alkhurma/index.html; https://www.ecdc.europa.eu/en/alkhurma-haemorrhagic-fever/facts</t>
+  </si>
+  <si>
+    <t>https://www.who.int/news-room/fact-sheets/detail/crimean-congo-haemorrhagic-fever#:~:text=Crimean%2DCongo%20haemorrhagic%20fever%20(CCHF)%20is%20a%20widespread%20disease,rate%20of%2010%E2%80%9340%25.</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/easternequineencephalitis/index.html</t>
+  </si>
+  <si>
+    <t>https://www.who.int/news-room/fact-sheets/detail/japanese-encephalitis</t>
+  </si>
+  <si>
+    <t>https://www.who.int/news-room/fact-sheets/detail/leishmaniasis</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/sle/index.html#:~:text=Related%20Pages-,St.,nausea%2C%20vomiting%2C%20and%20tiredness.</t>
+  </si>
+  <si>
+    <t>https://wwwnc.cdc.gov/eid/article/21/5/15-0150_article</t>
+  </si>
+  <si>
+    <t>TechCardOIE</t>
+  </si>
+  <si>
+    <t>TechCard-others</t>
+  </si>
+  <si>
+    <t>https://www.who.int/news-room/fact-sheets/detail/west-nile-virus</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1472,6 +1511,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4547,10 +4598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249E6CE8-6792-4D7D-8697-62FBC58BAB4E}">
-  <dimension ref="A1:AE49"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4560,20 +4611,21 @@
     <col min="3" max="3" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="4.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" style="53" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="12"/>
-    <col min="15" max="19" width="9.140625" style="3"/>
-    <col min="20" max="20" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="3"/>
+    <col min="15" max="15" width="12.42578125" style="61" customWidth="1"/>
+    <col min="16" max="16" width="11" style="61" customWidth="1"/>
+    <col min="17" max="21" width="9.140625" style="3"/>
+    <col min="22" max="22" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4616,57 +4668,63 @@
       <c r="N1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="O1" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AE1" s="15"/>
-    </row>
-    <row r="2" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG1" s="15"/>
+    </row>
+    <row r="2" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -4705,22 +4763,22 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="12"/>
-      <c r="O2" s="3">
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="3">
         <v>131</v>
       </c>
-      <c r="P2" s="3">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="3"/>
       <c r="R2" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -4729,9 +4787,11 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
-      <c r="AE2" s="15"/>
-    </row>
-    <row r="3" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="15"/>
+    </row>
+    <row r="3" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4765,28 +4825,28 @@
       <c r="K3" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
+      <c r="L3" s="55" t="s">
+        <v>299</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="12"/>
-      <c r="O3" s="3">
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="3">
         <v>11</v>
       </c>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3"/>
       <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3">
         <v>11</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3">
-        <v>1</v>
-      </c>
+      <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -4794,8 +4854,10 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
-    </row>
-    <row r="4" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+    </row>
+    <row r="4" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>127</v>
       </c>
@@ -4829,8 +4891,8 @@
       <c r="K4" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>10</v>
+      <c r="L4" s="59" t="s">
+        <v>300</v>
       </c>
       <c r="M4" s="3">
         <v>2022</v>
@@ -4838,32 +4900,34 @@
       <c r="N4" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="3">
         <v>32</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3">
         <v>15</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="3">
-        <v>1</v>
-      </c>
+      <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3">
-        <v>1</v>
-      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
+      <c r="AA4" s="3">
+        <v>1</v>
+      </c>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>124</v>
       </c>
@@ -4897,17 +4961,17 @@
       <c r="K5" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="L5" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q5" s="3">
         <v>51</v>
       </c>
-      <c r="R5" s="3">
+      <c r="T5" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>136</v>
       </c>
@@ -4941,17 +5005,17 @@
       <c r="K6" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="3">
-        <v>10</v>
-      </c>
-      <c r="R6" s="3">
+      <c r="L6" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>10</v>
+      </c>
+      <c r="T6" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -4985,20 +5049,20 @@
       <c r="K7" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="L7" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q7" s="3">
         <v>184</v>
       </c>
-      <c r="P7" s="3">
+      <c r="R7" s="3">
         <v>6</v>
       </c>
-      <c r="R7" s="3">
+      <c r="T7" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -5032,17 +5096,17 @@
       <c r="K8" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="L8" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q8" s="3">
         <v>21</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5076,17 +5140,17 @@
       <c r="K9" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="L9" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q9" s="3">
         <v>11</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -5120,17 +5184,17 @@
       <c r="K10" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="L10" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q10" s="3">
         <v>3</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>78</v>
       </c>
@@ -5164,8 +5228,8 @@
       <c r="K11" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>10</v>
+      <c r="L11" s="59" t="s">
+        <v>301</v>
       </c>
       <c r="M11" s="3">
         <v>2022</v>
@@ -5173,17 +5237,17 @@
       <c r="N11" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
         <v>2</v>
       </c>
-      <c r="R11" s="3">
+      <c r="T11" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -5217,20 +5281,20 @@
       <c r="K12" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="L12" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q12" s="3">
         <v>218</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>27</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>103</v>
       </c>
@@ -5264,17 +5328,17 @@
       <c r="K13" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="L13" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q13" s="3">
         <v>19</v>
       </c>
-      <c r="R13" s="3">
+      <c r="T13" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -5308,26 +5372,26 @@
       <c r="K14" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="59" t="s">
+        <v>302</v>
       </c>
       <c r="M14" s="3">
         <v>2022</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>298</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>16</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>5</v>
       </c>
-      <c r="Y14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AA14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>115</v>
       </c>
@@ -5361,26 +5425,26 @@
       <c r="K15" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="3">
         <v>2022</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>150</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>7</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>17</v>
       </c>
-      <c r="Y15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AA15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -5411,18 +5475,20 @@
       <c r="K16" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>10</v>
+      <c r="L16" s="59" t="s">
+        <v>303</v>
       </c>
       <c r="M16" s="3">
         <v>2022</v>
       </c>
       <c r="N16" s="13"/>
-      <c r="T16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -5463,14 +5529,16 @@
         <v>2017</v>
       </c>
       <c r="N17" s="13"/>
-      <c r="U17" s="3">
-        <v>1</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="W17" s="3">
+        <v>1</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -5511,17 +5579,19 @@
         <v>2017</v>
       </c>
       <c r="N18" s="13"/>
-      <c r="O18" s="3">
-        <v>12</v>
-      </c>
-      <c r="U18" s="3">
-        <v>1</v>
-      </c>
-      <c r="V18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="3">
+        <v>12</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -5562,14 +5632,16 @@
         <v>2017</v>
       </c>
       <c r="N19" s="13"/>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-      <c r="T19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -5610,23 +5682,25 @@
         <v>2017</v>
       </c>
       <c r="N20" s="13"/>
-      <c r="O20" s="3">
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="3">
         <v>131</v>
       </c>
-      <c r="P20" s="3">
-        <v>1</v>
-      </c>
       <c r="R20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
         <v>25</v>
       </c>
-      <c r="T20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -5667,14 +5741,16 @@
         <v>2017</v>
       </c>
       <c r="N21" s="13"/>
-      <c r="O21" s="3">
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="3">
         <v>6</v>
       </c>
-      <c r="U21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
@@ -5715,14 +5791,16 @@
         <v>2017</v>
       </c>
       <c r="N22" s="13"/>
-      <c r="O22" s="3">
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="3">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
@@ -5756,23 +5834,23 @@
       <c r="K23" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>10</v>
+      <c r="L23" s="59" t="s">
+        <v>304</v>
       </c>
       <c r="M23" s="3">
         <v>2022</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2</v>
       </c>
-      <c r="P23" s="3">
-        <v>1</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
@@ -5806,20 +5884,20 @@
       <c r="K24" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>10</v>
+      <c r="L24" s="59" t="s">
+        <v>305</v>
       </c>
       <c r="M24" s="3">
         <v>2022</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>9</v>
       </c>
-      <c r="V24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -5860,11 +5938,13 @@
         <v>2017</v>
       </c>
       <c r="N25" s="13"/>
-      <c r="U25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="W25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -5905,14 +5985,16 @@
         <v>2017</v>
       </c>
       <c r="N26" s="13"/>
-      <c r="O26" s="3">
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="3">
         <v>27</v>
       </c>
-      <c r="T26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -5953,14 +6035,16 @@
         <v>2017</v>
       </c>
       <c r="N27" s="13"/>
-      <c r="O27" s="3">
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="3">
         <v>19</v>
       </c>
-      <c r="U27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>75</v>
       </c>
@@ -6001,14 +6085,16 @@
         <v>2017</v>
       </c>
       <c r="N28" s="13"/>
-      <c r="O28" s="3">
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="3">
         <v>5</v>
       </c>
-      <c r="V28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -6049,14 +6135,16 @@
         <v>2017</v>
       </c>
       <c r="N29" s="13"/>
-      <c r="O29" s="3">
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="3">
         <v>4</v>
       </c>
-      <c r="T29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>86</v>
       </c>
@@ -6097,14 +6185,16 @@
         <v>2017</v>
       </c>
       <c r="N30" s="13"/>
-      <c r="O30" s="3">
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="3">
         <v>2</v>
       </c>
-      <c r="V30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>93</v>
       </c>
@@ -6138,20 +6228,20 @@
       <c r="K31" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>10</v>
+      <c r="L31" s="59" t="s">
+        <v>306</v>
       </c>
       <c r="M31" s="3">
         <v>2022</v>
       </c>
-      <c r="O31" s="3">
+      <c r="Q31" s="3">
         <v>11</v>
       </c>
-      <c r="V31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>96</v>
       </c>
@@ -6189,11 +6279,13 @@
         <v>2017</v>
       </c>
       <c r="N32" s="13"/>
-      <c r="U32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="W32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>99</v>
       </c>
@@ -6227,20 +6319,20 @@
       <c r="K33" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>10</v>
+      <c r="L33" s="59" t="s">
+        <v>307</v>
       </c>
       <c r="M33" s="3">
         <v>2022</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>50</v>
       </c>
-      <c r="W33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>106</v>
       </c>
@@ -6278,14 +6370,16 @@
         <v>2017</v>
       </c>
       <c r="N34" s="13"/>
-      <c r="O34" s="3">
-        <v>1</v>
-      </c>
-      <c r="U34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="3">
+        <v>1</v>
+      </c>
+      <c r="W34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>109</v>
       </c>
@@ -6326,11 +6420,13 @@
         <v>2017</v>
       </c>
       <c r="N35" s="13"/>
-      <c r="V35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="X35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>112</v>
       </c>
@@ -6364,17 +6460,17 @@
       <c r="K36" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M36" s="3">
         <v>2022</v>
       </c>
-      <c r="T36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>118</v>
       </c>
@@ -6415,11 +6511,13 @@
         <v>2017</v>
       </c>
       <c r="N37" s="13"/>
-      <c r="U37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="W37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>121</v>
       </c>
@@ -6460,11 +6558,13 @@
         <v>2017</v>
       </c>
       <c r="N38" s="13"/>
-      <c r="V38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="X38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>133</v>
       </c>
@@ -6505,14 +6605,16 @@
         <v>2017</v>
       </c>
       <c r="N39" s="13"/>
-      <c r="O39" s="3">
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="3">
         <v>13</v>
       </c>
-      <c r="U39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="s">
         <v>171</v>
       </c>
@@ -6529,14 +6631,16 @@
         <v>2017</v>
       </c>
       <c r="N40" s="58"/>
-      <c r="O40" s="57">
-        <v>1</v>
-      </c>
-      <c r="P40" s="57">
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="57">
+        <v>1</v>
+      </c>
+      <c r="R40" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>139</v>
       </c>
@@ -6570,20 +6674,20 @@
       <c r="K41" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M41" s="3">
         <v>2022</v>
       </c>
-      <c r="U41" s="3">
-        <v>1</v>
-      </c>
-      <c r="V41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W41" s="3">
+        <v>1</v>
+      </c>
+      <c r="X41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>142</v>
       </c>
@@ -6614,23 +6718,23 @@
       <c r="K42" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>10</v>
+      <c r="L42" s="59" t="s">
+        <v>308</v>
       </c>
       <c r="M42" s="3">
         <v>2022</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>9</v>
       </c>
-      <c r="P42" s="3">
-        <v>1</v>
-      </c>
-      <c r="V42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R42" s="3">
+        <v>1</v>
+      </c>
+      <c r="X42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>145</v>
       </c>
@@ -6664,17 +6768,17 @@
       <c r="K43" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>10</v>
+      <c r="L43" s="59" t="s">
+        <v>309</v>
       </c>
       <c r="M43" s="3">
         <v>2022</v>
       </c>
-      <c r="T43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>148</v>
       </c>
@@ -6708,23 +6812,23 @@
       <c r="K44" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M44" s="3">
         <v>2022</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>16</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3</v>
       </c>
-      <c r="V44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>151</v>
       </c>
@@ -6758,32 +6862,32 @@
       <c r="K45" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M45" s="3">
         <v>2022</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>14</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2</v>
       </c>
-      <c r="T45" s="3">
-        <v>1</v>
-      </c>
-      <c r="U45" s="3">
-        <v>1</v>
-      </c>
       <c r="V45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W45" s="3">
+        <v>1</v>
+      </c>
+      <c r="X45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>164</v>
       </c>
@@ -6824,11 +6928,13 @@
         <v>2017</v>
       </c>
       <c r="N46" s="13"/>
-      <c r="V46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="X46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>155</v>
       </c>
@@ -6862,20 +6968,20 @@
       <c r="K47" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M47" s="3">
         <v>2022</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>6</v>
       </c>
-      <c r="V47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>158</v>
       </c>
@@ -6909,23 +7015,23 @@
       <c r="K48" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>10</v>
+      <c r="L48" s="59" t="s">
+        <v>312</v>
       </c>
       <c r="M48" s="3">
         <v>2022</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>24</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>161</v>
       </c>
@@ -6959,17 +7065,19 @@
       <c r="K49" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L49" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M49" s="10">
         <v>2017</v>
       </c>
       <c r="N49" s="13"/>
-      <c r="O49" s="3">
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="3">
         <v>6</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1</v>
       </c>
     </row>
@@ -7018,8 +7126,20 @@
     <hyperlink ref="D48" r:id="rId41" xr:uid="{26AC61CA-2C29-48A6-A114-9A577CCCA8FC}"/>
     <hyperlink ref="D49" r:id="rId42" xr:uid="{F4FA0E92-CC30-4659-BDDE-B96398F52C9F}"/>
     <hyperlink ref="D46" r:id="rId43" xr:uid="{3E509250-BF13-425B-A51D-BAD28F463ECD}"/>
+    <hyperlink ref="L4" r:id="rId44" xr:uid="{79E84227-C690-45F5-B4EF-D0938B52AFC6}"/>
+    <hyperlink ref="L11" r:id="rId45" xr:uid="{AA7DE164-1304-44DB-B43B-F6D4AAFEA306}"/>
+    <hyperlink ref="L16" r:id="rId46" display="https://www.cdc.gov/vhf/alkhurma/index.html; " xr:uid="{30847DA6-DB4B-4AA3-AFD0-EBC49DAA1A2C}"/>
+    <hyperlink ref="L14" r:id="rId47" xr:uid="{1D7A7BD3-685F-43C7-819C-3FAAE8B50A9F}"/>
+    <hyperlink ref="L23" r:id="rId48" location=":~:text=Crimean%2DCongo%20haemorrhagic%20fever%20(CCHF)%20is%20a%20widespread%20disease,rate%20of%2010%E2%80%9340%25." xr:uid="{261B5D3C-B902-45E5-BB53-B55F2BA4F301}"/>
+    <hyperlink ref="L24" r:id="rId49" xr:uid="{FCCD58AE-0B43-4456-A0CA-32C1817AD173}"/>
+    <hyperlink ref="L31" r:id="rId50" xr:uid="{500550EC-CDA8-4616-AA6F-DCBC26DCBA9A}"/>
+    <hyperlink ref="L33" r:id="rId51" xr:uid="{1DDCC7A2-77DE-42D9-8252-22E2AF7B2ED8}"/>
+    <hyperlink ref="L42" r:id="rId52" location=":~:text=Related%20Pages-,St.,nausea%2C%20vomiting%2C%20and%20tiredness." xr:uid="{4BF80363-E95C-42EC-84B2-CA4413ABED7B}"/>
+    <hyperlink ref="L43" r:id="rId53" xr:uid="{8890D292-93D6-4EEB-8156-96D8EC1CCE9F}"/>
+    <hyperlink ref="L48" r:id="rId54" xr:uid="{87853F2E-013D-493E-8E26-8D4E4A21DED2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
 
@@ -7663,11 +7783,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="52ea4a7c-6901-4db7-900e-b45097d0ff93" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7888,20 +8009,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="52ea4a7c-6901-4db7-900e-b45097d0ff93" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBDA711-F404-4C5B-BB2C-544733B5993A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACF7FD7-0294-44CF-A08E-BCEC28737BB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52ea4a7c-6901-4db7-900e-b45097d0ff93"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7926,9 +8044,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACF7FD7-0294-44CF-A08E-BCEC28737BB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBDA711-F404-4C5B-BB2C-544733B5993A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52ea4a7c-6901-4db7-900e-b45097d0ff93"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/diseases-list.xlsx
+++ b/inst/diseases-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\GitHub\EFSA-disease-profiles\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99B0E9A-3FC4-430C-BD80-71DCEB9E9E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBAC71E-8432-44FD-BC06-8D99FF9B1339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{0ACB5481-8904-4757-9496-FA4100A86F68}"/>
   </bookViews>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="319">
   <si>
     <t>Disease</t>
   </si>
@@ -844,9 +844,6 @@
     <t>action needed to organize the data</t>
   </si>
   <si>
-    <t>review</t>
-  </si>
-  <si>
     <t>REDO from scratch</t>
   </si>
   <si>
@@ -862,9 +859,6 @@
     <t>subtab: official reports</t>
   </si>
   <si>
-    <t>NEW: clinical signs, severity/impact?, #papers/groups with CS, Ro, anything else</t>
-  </si>
-  <si>
     <t>change order; transmission rate? Route of infection. Matrices other than blood (HPAI swabs) Egg/vertical transmission</t>
   </si>
   <si>
@@ -1114,9 +1108,6 @@
     <t>https://www.cdc.gov/vhf/alkhurma/index.html; https://www.ecdc.europa.eu/en/alkhurma-haemorrhagic-fever/facts</t>
   </si>
   <si>
-    <t>https://www.who.int/news-room/fact-sheets/detail/crimean-congo-haemorrhagic-fever#:~:text=Crimean%2DCongo%20haemorrhagic%20fever%20(CCHF)%20is%20a%20widespread%20disease,rate%20of%2010%E2%80%9340%25.</t>
-  </si>
-  <si>
     <t>https://www.cdc.gov/easternequineencephalitis/index.html</t>
   </si>
   <si>
@@ -1129,23 +1120,63 @@
     <t>https://www.cdc.gov/sle/index.html#:~:text=Related%20Pages-,St.,nausea%2C%20vomiting%2C%20and%20tiredness.</t>
   </si>
   <si>
-    <t>https://wwwnc.cdc.gov/eid/article/21/5/15-0150_article</t>
-  </si>
-  <si>
-    <t>TechCardOIE</t>
-  </si>
-  <si>
-    <t>TechCard-others</t>
-  </si>
-  <si>
     <t>https://www.who.int/news-room/fact-sheets/detail/west-nile-virus</t>
+  </si>
+  <si>
+    <t>NEW: clinical signs, severity/impact?, #papers/groups with CS, Ro, anything else. LEFT: tech disease cards</t>
+  </si>
+  <si>
+    <t>RUN ALL DISEASES</t>
+  </si>
+  <si>
+    <t>TechDz card-AH</t>
+  </si>
+  <si>
+    <t>Dzcard-PH</t>
+  </si>
+  <si>
+    <t>https://www.who.int/health-topics/crimean-congo-haemorrhagic-fever</t>
+  </si>
+  <si>
+    <t>https://apps.who.int/neglected_diseases/ntddata/leishmaniasis/leishmaniasis.html</t>
+  </si>
+  <si>
+    <t>https://www.who.int/data/gho/map-gallery-search-results?&amp;maptopics=82c0d61f-ccfd-41df-b9bd-3fc98bc84093</t>
+  </si>
+  <si>
+    <t>do all in github with IGNORE HTML PNG</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">copy Github files INTO azure workflow (EXCELS ALSO TO BE REPLACED), make sure </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT TO REPLACE GITIGNORE</t>
+    </r>
+  </si>
+  <si>
+    <t>zoonotic, no WHO maps found</t>
+  </si>
+  <si>
+    <t>review right side</t>
+  </si>
+  <si>
+    <t>review LEFT side and title once new tab added</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,6 +1259,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1347,7 +1386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1501,9 +1540,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1525,6 +1561,12 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -3498,38 +3540,38 @@
   <sheetData>
     <row r="1" spans="1:50" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>227</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>47</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>91</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>78</v>
@@ -3541,7 +3583,7 @@
         <v>130</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>33</v>
@@ -3565,82 +3607,82 @@
         <v>94</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Y1" s="20" t="s">
         <v>134</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AA1" s="21" t="s">
         <v>152</v>
       </c>
       <c r="AB1" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD1" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AE1" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AF1" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AG1" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AH1" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AI1" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AK1" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AL1" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AM1" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AN1" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AO1" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AP1" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AR1" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AS1" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AT1" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="AS1" s="22" t="s">
+      <c r="AU1" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AV1" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="AU1" s="22" t="s">
+      <c r="AW1" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="AV1" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="AW1" s="22" t="s">
-        <v>255</v>
       </c>
       <c r="AX1" s="17" t="s">
         <v>171</v>
@@ -3648,210 +3690,210 @@
     </row>
     <row r="2" spans="1:50" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
     </row>
     <row r="3" spans="1:50" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="D5" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>264</v>
-      </c>
       <c r="G5" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P5" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:50" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -3864,122 +3906,122 @@
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q6" s="37"/>
       <c r="R6" s="38"/>
     </row>
     <row r="7" spans="1:50" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="K7" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="L7" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="N7" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>271</v>
-      </c>
       <c r="O7" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:50" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M8" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>274</v>
-      </c>
       <c r="N8" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O8" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:50" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -4004,64 +4046,64 @@
         <v>170</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
@@ -4078,19 +4120,19 @@
     </row>
     <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
@@ -4107,154 +4149,154 @@
     </row>
     <row r="13" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L13" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="31"/>
     </row>
     <row r="14" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M14" s="41"/>
       <c r="N14" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O14" s="41"/>
       <c r="P14" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B15" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="C15" s="39" t="s">
-        <v>285</v>
-      </c>
       <c r="D15" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M15" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N15" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O15" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P15" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>4</v>
@@ -4302,59 +4344,59 @@
     </row>
     <row r="17" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P17" s="45" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="31"/>
@@ -4375,7 +4417,7 @@
     </row>
     <row r="19" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="46"/>
@@ -4397,7 +4439,7 @@
     </row>
     <row r="20" spans="1:50" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="50">
@@ -4547,46 +4589,46 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q21" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R21" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="S21" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="T21" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="U21" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="V21" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="W21" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="X21" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Y21" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Z21" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AA21" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AB21" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AC21" s="52" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4601,7 +4643,7 @@
   <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4614,8 +4656,8 @@
     <col min="11" max="12" width="13.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="12"/>
-    <col min="15" max="15" width="12.42578125" style="61" customWidth="1"/>
-    <col min="16" max="16" width="11" style="61" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="60" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="3" customWidth="1"/>
     <col min="17" max="21" width="9.140625" style="3"/>
     <col min="22" max="22" width="2" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -4657,10 +4699,10 @@
         <v>169</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>173</v>
@@ -4668,11 +4710,11 @@
       <c r="N1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="O1" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="P1" s="60" t="s">
-        <v>311</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>0</v>
@@ -4756,16 +4798,18 @@
         <v>12</v>
       </c>
       <c r="K2" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L2" s="55" t="s">
-        <v>299</v>
+        <v>293</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="12"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="3">
+      <c r="O2" s="60"/>
+      <c r="P2" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q2" s="54">
         <v>131</v>
       </c>
       <c r="R2" s="3">
@@ -4823,16 +4867,18 @@
         <v>12</v>
       </c>
       <c r="K3" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L3" s="55" t="s">
-        <v>299</v>
+        <v>293</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="12"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="3">
+      <c r="O3" s="60"/>
+      <c r="P3" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q3" s="54">
         <v>11</v>
       </c>
       <c r="R3" s="3">
@@ -4889,10 +4935,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L4" s="59" t="s">
-        <v>300</v>
+        <v>293</v>
+      </c>
+      <c r="L4" s="64" t="s">
+        <v>298</v>
       </c>
       <c r="M4" s="3">
         <v>2022</v>
@@ -4900,9 +4946,11 @@
       <c r="N4" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="3">
+      <c r="O4" s="60"/>
+      <c r="P4" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q4" s="54">
         <v>32</v>
       </c>
       <c r="R4" s="3"/>
@@ -4959,12 +5007,15 @@
         <v>12</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L5" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q5" s="3">
+        <v>293</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="P5" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q5" s="54">
         <v>51</v>
       </c>
       <c r="T5" s="3">
@@ -5003,12 +5054,15 @@
         <v>12</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L6" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q6" s="3">
+        <v>293</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="P6" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q6" s="54">
         <v>10</v>
       </c>
       <c r="T6" s="3">
@@ -5047,12 +5101,15 @@
         <v>12</v>
       </c>
       <c r="K7" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L7" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q7" s="3">
+        <v>293</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="P7" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q7" s="54">
         <v>184</v>
       </c>
       <c r="R7" s="3">
@@ -5094,12 +5151,15 @@
         <v>12</v>
       </c>
       <c r="K8" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q8" s="3">
+        <v>293</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="P8" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q8" s="54">
         <v>21</v>
       </c>
       <c r="R8" s="3">
@@ -5138,12 +5198,15 @@
         <v>50</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L9" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q9" s="3">
+        <v>293</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="P9" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q9" s="54">
         <v>11</v>
       </c>
       <c r="T9" s="3">
@@ -5182,12 +5245,15 @@
         <v>50</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L10" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q10" s="3">
+        <v>293</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="P10" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q10" s="54">
         <v>3</v>
       </c>
       <c r="T10" s="3">
@@ -5226,10 +5292,10 @@
         <v>50</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L11" s="59" t="s">
-        <v>301</v>
+        <v>293</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="M11" s="3">
         <v>2022</v>
@@ -5237,7 +5303,10 @@
       <c r="N11" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="P11" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q11" s="54">
         <v>1</v>
       </c>
       <c r="R11" s="3">
@@ -5279,12 +5348,15 @@
         <v>12</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L12" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q12" s="3">
+        <v>293</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="P12" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q12" s="54">
         <v>218</v>
       </c>
       <c r="R12" s="3">
@@ -5326,12 +5398,15 @@
         <v>12</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L13" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q13" s="3">
+        <v>293</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="P13" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q13" s="54">
         <v>19</v>
       </c>
       <c r="T13" s="3">
@@ -5370,15 +5445,18 @@
         <v>12</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L14" s="59" t="s">
-        <v>302</v>
+        <v>293</v>
+      </c>
+      <c r="L14" s="64" t="s">
+        <v>313</v>
       </c>
       <c r="M14" s="3">
         <v>2022</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="54">
         <v>298</v>
       </c>
       <c r="R14" s="3">
@@ -5423,15 +5501,18 @@
         <v>12</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>10</v>
+        <v>316</v>
       </c>
       <c r="M15" s="3">
         <v>2022</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="P15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="54">
         <v>150</v>
       </c>
       <c r="R15" s="3">
@@ -5472,18 +5553,21 @@
       <c r="J16" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L16" s="59" t="s">
-        <v>303</v>
+      <c r="K16" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="M16" s="3">
         <v>2022</v>
       </c>
       <c r="N16" s="13"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q16" s="54"/>
       <c r="V16" s="3">
         <v>1</v>
       </c>
@@ -5519,18 +5603,21 @@
       <c r="J17" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>22</v>
+      <c r="K17" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M17" s="10">
         <v>2017</v>
       </c>
       <c r="N17" s="13"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q17" s="54"/>
       <c r="W17" s="3">
         <v>1</v>
       </c>
@@ -5569,19 +5656,21 @@
       <c r="J18" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>22</v>
+      <c r="K18" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M18" s="10">
         <v>2017</v>
       </c>
       <c r="N18" s="13"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="3">
+      <c r="O18" s="61"/>
+      <c r="P18" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q18" s="54">
         <v>12</v>
       </c>
       <c r="W18" s="3">
@@ -5622,19 +5711,21 @@
       <c r="J19" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>22</v>
+      <c r="K19" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L19" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M19" s="10">
         <v>2017</v>
       </c>
       <c r="N19" s="13"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="3">
+      <c r="O19" s="61"/>
+      <c r="P19" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q19" s="54">
         <v>1</v>
       </c>
       <c r="V19" s="3">
@@ -5673,18 +5764,20 @@
         <v>12</v>
       </c>
       <c r="K20" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>22</v>
+        <v>293</v>
+      </c>
+      <c r="L20" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M20" s="10">
         <v>2017</v>
       </c>
       <c r="N20" s="13"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="3">
+      <c r="O20" s="61"/>
+      <c r="P20" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q20" s="54">
         <v>131</v>
       </c>
       <c r="R20" s="3">
@@ -5731,19 +5824,21 @@
       <c r="J21" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>22</v>
+      <c r="K21" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M21" s="10">
         <v>2017</v>
       </c>
       <c r="N21" s="13"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="3">
+      <c r="O21" s="61"/>
+      <c r="P21" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q21" s="54">
         <v>6</v>
       </c>
       <c r="W21" s="3">
@@ -5781,19 +5876,21 @@
       <c r="J22" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>22</v>
+      <c r="K22" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L22" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M22" s="10">
         <v>2017</v>
       </c>
       <c r="N22" s="13"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="3">
+      <c r="O22" s="61"/>
+      <c r="P22" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q22" s="54">
         <v>3</v>
       </c>
       <c r="X22" s="3">
@@ -5832,15 +5929,18 @@
         <v>12</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L23" s="59" t="s">
-        <v>304</v>
+        <v>293</v>
+      </c>
+      <c r="L23" s="64" t="s">
+        <v>311</v>
       </c>
       <c r="M23" s="3">
         <v>2022</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="P23" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q23" s="54">
         <v>2</v>
       </c>
       <c r="R23" s="3">
@@ -5882,15 +5982,18 @@
         <v>12</v>
       </c>
       <c r="K24" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L24" s="59" t="s">
-        <v>305</v>
+        <v>293</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="M24" s="3">
         <v>2022</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="P24" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q24" s="54">
         <v>9</v>
       </c>
       <c r="X24" s="3">
@@ -5929,17 +6032,20 @@
         <v>12</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>22</v>
+        <v>293</v>
+      </c>
+      <c r="L25" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M25" s="10">
         <v>2017</v>
       </c>
       <c r="N25" s="13"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q25" s="54"/>
       <c r="W25" s="3">
         <v>1</v>
       </c>
@@ -5975,19 +6081,21 @@
       <c r="J26" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>22</v>
+      <c r="K26" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L26" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M26" s="10">
         <v>2017</v>
       </c>
       <c r="N26" s="13"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="3">
+      <c r="O26" s="61"/>
+      <c r="P26" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q26" s="54">
         <v>27</v>
       </c>
       <c r="V26" s="3">
@@ -6026,18 +6134,20 @@
         <v>12</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>22</v>
+        <v>293</v>
+      </c>
+      <c r="L27" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M27" s="10">
         <v>2017</v>
       </c>
       <c r="N27" s="13"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="3">
+      <c r="O27" s="61"/>
+      <c r="P27" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q27" s="54">
         <v>19</v>
       </c>
       <c r="W27" s="3">
@@ -6075,19 +6185,21 @@
       <c r="J28" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>22</v>
+      <c r="K28" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L28" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M28" s="10">
         <v>2017</v>
       </c>
       <c r="N28" s="13"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="3">
+      <c r="O28" s="61"/>
+      <c r="P28" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q28" s="54">
         <v>5</v>
       </c>
       <c r="X28" s="3">
@@ -6125,19 +6237,21 @@
       <c r="J29" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>22</v>
+      <c r="K29" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L29" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M29" s="10">
         <v>2017</v>
       </c>
       <c r="N29" s="13"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="3">
+      <c r="O29" s="61"/>
+      <c r="P29" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q29" s="54">
         <v>4</v>
       </c>
       <c r="V29" s="3">
@@ -6175,19 +6289,21 @@
       <c r="J30" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>22</v>
+      <c r="K30" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M30" s="10">
         <v>2017</v>
       </c>
       <c r="N30" s="13"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="3">
+      <c r="O30" s="61"/>
+      <c r="P30" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q30" s="54">
         <v>2</v>
       </c>
       <c r="X30" s="3">
@@ -6226,15 +6342,18 @@
         <v>12</v>
       </c>
       <c r="K31" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L31" s="59" t="s">
-        <v>306</v>
+        <v>293</v>
+      </c>
+      <c r="L31" s="64" t="s">
+        <v>303</v>
       </c>
       <c r="M31" s="3">
         <v>2022</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="P31" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q31" s="54">
         <v>11</v>
       </c>
       <c r="X31" s="3">
@@ -6269,18 +6388,21 @@
       <c r="J32" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>22</v>
+      <c r="K32" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L32" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M32" s="10">
         <v>2017</v>
       </c>
       <c r="N32" s="13"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q32" s="54"/>
       <c r="W32" s="3">
         <v>1</v>
       </c>
@@ -6317,15 +6439,18 @@
         <v>85</v>
       </c>
       <c r="K33" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L33" s="59" t="s">
-        <v>307</v>
+        <v>293</v>
+      </c>
+      <c r="L33" s="64" t="s">
+        <v>312</v>
       </c>
       <c r="M33" s="3">
         <v>2022</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="P33" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q33" s="54">
         <v>50</v>
       </c>
       <c r="Y33" s="3">
@@ -6360,19 +6485,21 @@
       <c r="J34" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K34" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>22</v>
+      <c r="K34" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L34" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M34" s="10">
         <v>2017</v>
       </c>
       <c r="N34" s="13"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="3">
+      <c r="O34" s="61"/>
+      <c r="P34" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q34" s="54">
         <v>1</v>
       </c>
       <c r="W34" s="3">
@@ -6410,18 +6537,21 @@
       <c r="J35" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K35" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>22</v>
+      <c r="K35" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L35" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M35" s="10">
         <v>2017</v>
       </c>
       <c r="N35" s="13"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q35" s="54"/>
       <c r="X35" s="3">
         <v>1</v>
       </c>
@@ -6458,14 +6588,18 @@
         <v>12</v>
       </c>
       <c r="K36" s="54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>10</v>
+        <v>316</v>
       </c>
       <c r="M36" s="3">
         <v>2022</v>
       </c>
+      <c r="P36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="54"/>
       <c r="V36" s="3">
         <v>1</v>
       </c>
@@ -6501,18 +6635,21 @@
       <c r="J37" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>22</v>
+      <c r="K37" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L37" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M37" s="10">
         <v>2017</v>
       </c>
       <c r="N37" s="13"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q37" s="54"/>
       <c r="W37" s="3">
         <v>1</v>
       </c>
@@ -6548,18 +6685,21 @@
       <c r="J38" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K38" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>22</v>
+      <c r="K38" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L38" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M38" s="10">
         <v>2017</v>
       </c>
       <c r="N38" s="13"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q38" s="54"/>
       <c r="X38" s="3">
         <v>1</v>
       </c>
@@ -6596,47 +6736,51 @@
         <v>12</v>
       </c>
       <c r="K39" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>22</v>
+        <v>293</v>
+      </c>
+      <c r="L39" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M39" s="10">
         <v>2017</v>
       </c>
       <c r="N39" s="13"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="3">
+      <c r="O39" s="61"/>
+      <c r="P39" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q39" s="54">
         <v>13</v>
       </c>
       <c r="W39" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="s">
+    <row r="40" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="56">
+      <c r="B40" s="55">
         <v>39</v>
       </c>
-      <c r="I40" s="57" t="s">
+      <c r="I40" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="57" t="s">
+      <c r="L40" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="M40" s="58">
+      <c r="M40" s="57">
         <v>2017</v>
       </c>
-      <c r="N40" s="58"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="57">
-        <v>1</v>
-      </c>
-      <c r="R40" s="57">
+      <c r="N40" s="57"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q40" s="54">
+        <v>1</v>
+      </c>
+      <c r="R40" s="56">
         <v>6</v>
       </c>
     </row>
@@ -6671,15 +6815,19 @@
       <c r="J41" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="55" t="s">
-        <v>296</v>
+      <c r="K41" s="56" t="s">
+        <v>294</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>10</v>
+        <v>316</v>
       </c>
       <c r="M41" s="3">
         <v>2022</v>
       </c>
+      <c r="P41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="54"/>
       <c r="W41" s="3">
         <v>1</v>
       </c>
@@ -6715,16 +6863,19 @@
       <c r="J42" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K42" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L42" s="59" t="s">
-        <v>308</v>
+      <c r="K42" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="M42" s="3">
         <v>2022</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="P42" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q42" s="54">
         <v>9</v>
       </c>
       <c r="R42" s="3">
@@ -6765,15 +6916,19 @@
       <c r="J43" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L43" s="59" t="s">
-        <v>309</v>
+      <c r="K43" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="M43" s="3">
         <v>2022</v>
       </c>
+      <c r="P43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="54"/>
       <c r="V43" s="3">
         <v>1</v>
       </c>
@@ -6810,15 +6965,18 @@
         <v>12</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>10</v>
+        <v>316</v>
       </c>
       <c r="M44" s="3">
         <v>2022</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="P44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="54">
         <v>16</v>
       </c>
       <c r="R44" s="3">
@@ -6860,15 +7018,18 @@
         <v>12</v>
       </c>
       <c r="K45" s="54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>10</v>
+        <v>316</v>
       </c>
       <c r="M45" s="3">
         <v>2022</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="P45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="54">
         <v>14</v>
       </c>
       <c r="R45" s="3">
@@ -6918,18 +7079,21 @@
       <c r="J46" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>22</v>
+      <c r="K46" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="L46" s="56" t="s">
+        <v>297</v>
       </c>
       <c r="M46" s="10">
         <v>2017</v>
       </c>
       <c r="N46" s="13"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q46" s="54"/>
       <c r="X46" s="3">
         <v>1</v>
       </c>
@@ -6965,16 +7129,19 @@
       <c r="J47" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="55" t="s">
-        <v>296</v>
+      <c r="K47" s="56" t="s">
+        <v>294</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>10</v>
+        <v>316</v>
       </c>
       <c r="M47" s="3">
         <v>2022</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="P47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="54">
         <v>6</v>
       </c>
       <c r="X47" s="3">
@@ -7013,15 +7180,18 @@
         <v>12</v>
       </c>
       <c r="K48" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="L48" s="59" t="s">
-        <v>312</v>
+        <v>293</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="M48" s="3">
         <v>2022</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="P48" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q48" s="54">
         <v>24</v>
       </c>
       <c r="R48" s="3">
@@ -7063,18 +7233,20 @@
         <v>12</v>
       </c>
       <c r="K49" s="54" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>10</v>
+        <v>316</v>
       </c>
       <c r="M49" s="10">
         <v>2017</v>
       </c>
       <c r="N49" s="13"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
-      <c r="Q49" s="3">
+      <c r="O49" s="61"/>
+      <c r="P49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="54">
         <v>6</v>
       </c>
       <c r="X49" s="3">
@@ -7127,16 +7299,16 @@
     <hyperlink ref="D49" r:id="rId42" xr:uid="{F4FA0E92-CC30-4659-BDDE-B96398F52C9F}"/>
     <hyperlink ref="D46" r:id="rId43" xr:uid="{3E509250-BF13-425B-A51D-BAD28F463ECD}"/>
     <hyperlink ref="L4" r:id="rId44" xr:uid="{79E84227-C690-45F5-B4EF-D0938B52AFC6}"/>
-    <hyperlink ref="L11" r:id="rId45" xr:uid="{AA7DE164-1304-44DB-B43B-F6D4AAFEA306}"/>
-    <hyperlink ref="L16" r:id="rId46" display="https://www.cdc.gov/vhf/alkhurma/index.html; " xr:uid="{30847DA6-DB4B-4AA3-AFD0-EBC49DAA1A2C}"/>
-    <hyperlink ref="L14" r:id="rId47" xr:uid="{1D7A7BD3-685F-43C7-819C-3FAAE8B50A9F}"/>
-    <hyperlink ref="L23" r:id="rId48" location=":~:text=Crimean%2DCongo%20haemorrhagic%20fever%20(CCHF)%20is%20a%20widespread%20disease,rate%20of%2010%E2%80%9340%25." xr:uid="{261B5D3C-B902-45E5-BB53-B55F2BA4F301}"/>
-    <hyperlink ref="L24" r:id="rId49" xr:uid="{FCCD58AE-0B43-4456-A0CA-32C1817AD173}"/>
-    <hyperlink ref="L31" r:id="rId50" xr:uid="{500550EC-CDA8-4616-AA6F-DCBC26DCBA9A}"/>
-    <hyperlink ref="L33" r:id="rId51" xr:uid="{1DDCC7A2-77DE-42D9-8252-22E2AF7B2ED8}"/>
-    <hyperlink ref="L42" r:id="rId52" location=":~:text=Related%20Pages-,St.,nausea%2C%20vomiting%2C%20and%20tiredness." xr:uid="{4BF80363-E95C-42EC-84B2-CA4413ABED7B}"/>
-    <hyperlink ref="L43" r:id="rId53" xr:uid="{8890D292-93D6-4EEB-8156-96D8EC1CCE9F}"/>
-    <hyperlink ref="L48" r:id="rId54" xr:uid="{87853F2E-013D-493E-8E26-8D4E4A21DED2}"/>
+    <hyperlink ref="L31" r:id="rId45" xr:uid="{500550EC-CDA8-4616-AA6F-DCBC26DCBA9A}"/>
+    <hyperlink ref="P4" r:id="rId46" xr:uid="{FB998A94-D376-4B5F-823A-65C11BE4861A}"/>
+    <hyperlink ref="P11" r:id="rId47" xr:uid="{1F5E1084-B3E8-4F0B-9DCA-C3C532469B49}"/>
+    <hyperlink ref="P16" r:id="rId48" display="https://www.cdc.gov/vhf/alkhurma/index.html; " xr:uid="{9794E2C1-D91B-4A90-B1A6-28A3F28F7FB9}"/>
+    <hyperlink ref="P14" r:id="rId49" xr:uid="{85D90555-87D8-4427-AE48-C709B0C410C8}"/>
+    <hyperlink ref="P24" r:id="rId50" xr:uid="{753DD261-1FF6-4043-BEF6-E5AB353B4C4A}"/>
+    <hyperlink ref="P31" r:id="rId51" xr:uid="{ABF9CD0A-8327-46C4-BEBF-BAC2C330CB6C}"/>
+    <hyperlink ref="P33" r:id="rId52" xr:uid="{242A228B-F9A0-4A9F-9563-791280EA5BBA}"/>
+    <hyperlink ref="P42" r:id="rId53" location=":~:text=Related%20Pages-,St.,nausea%2C%20vomiting%2C%20and%20tiredness." xr:uid="{FD6D0EC3-2AD6-4544-8C22-951D19AAEF6E}"/>
+    <hyperlink ref="P48" r:id="rId54" xr:uid="{324A0919-EE3B-4F61-B941-AC1A8E5B8EB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
@@ -7624,10 +7796,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E475B9F-41DE-453B-92B0-16661F334DF3}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7663,13 +7835,13 @@
         <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7677,7 +7849,7 @@
         <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7688,7 +7860,7 @@
         <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7696,89 +7868,110 @@
         <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" t="s">
-        <v>221</v>
+      <c r="C7" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="D8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>205</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>208</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>210</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="62" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="62" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="63" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7792,6 +7985,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="52ea4a7c-6901-4db7-900e-b45097d0ff93" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100762F5BF7DFE93B458B0D4F43E4DE8887" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="041dbeef2d561d94de62a9be1ffa9937">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52ea4a7c-6901-4db7-900e-b45097d0ff93" xmlns:ns3="b91e0b92-9886-4e14-80a4-fdc3dbc12466" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8247379195e0f514290f689e79bcbf3b" ns2:_="" ns3:_="">
     <xsd:import namespace="52ea4a7c-6901-4db7-900e-b45097d0ff93"/>
@@ -8008,14 +8209,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="52ea4a7c-6901-4db7-900e-b45097d0ff93" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACF7FD7-0294-44CF-A08E-BCEC28737BB2}">
   <ds:schemaRefs>
@@ -8025,6 +8218,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBDA711-F404-4C5B-BB2C-544733B5993A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52ea4a7c-6901-4db7-900e-b45097d0ff93"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{226BF2DD-853D-4534-94F9-FF654FF52CE2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8041,14 +8244,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBDA711-F404-4C5B-BB2C-544733B5993A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52ea4a7c-6901-4db7-900e-b45097d0ff93"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/diseases-list.xlsx
+++ b/inst/diseases-list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\GitHub\EFSA-disease-profiles\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBAC71E-8432-44FD-BC06-8D99FF9B1339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4E5E2-9EE2-4EDC-8BE2-ED11EF926244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{0ACB5481-8904-4757-9496-FA4100A86F68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="4" xr2:uid="{0ACB5481-8904-4757-9496-FA4100A86F68}"/>
   </bookViews>
   <sheets>
     <sheet name="All diseases CLEAN LIST" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="333">
   <si>
     <t>Disease</t>
   </si>
@@ -857,9 +857,6 @@
   </si>
   <si>
     <t>subtab: official reports</t>
-  </si>
-  <si>
-    <t>change order; transmission rate? Route of infection. Matrices other than blood (HPAI swabs) Egg/vertical transmission</t>
   </si>
   <si>
     <t>Section</t>
@@ -1166,10 +1163,55 @@
     <t>zoonotic, no WHO maps found</t>
   </si>
   <si>
-    <t>review right side</t>
-  </si>
-  <si>
     <t>review LEFT side and title once new tab added</t>
+  </si>
+  <si>
+    <t>transmission rate? Route of infection. Matrices other than blood (HPAI swabs) Egg/vertical transmission</t>
+  </si>
+  <si>
+    <t>review right side - all runing?</t>
+  </si>
+  <si>
+    <t>all running?</t>
+  </si>
+  <si>
+    <t>all running? Automated</t>
+  </si>
+  <si>
+    <t>Not allowed</t>
+  </si>
+  <si>
+    <t>Never reviewed</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>No EU vaccine</t>
+  </si>
+  <si>
+    <t>8ref old data</t>
+  </si>
+  <si>
+    <t>1 vax, no refs</t>
+  </si>
+  <si>
+    <t>2 vax, no refs</t>
+  </si>
+  <si>
+    <t>3vax, 1 ref, miss some outputs</t>
+  </si>
+  <si>
+    <t>3 vax, no refs</t>
+  </si>
+  <si>
+    <t>from each profile, a link to the gallery</t>
+  </si>
+  <si>
+    <t>fix error: HPAI and diseases which is not blood</t>
+  </si>
+  <si>
+    <t>improve: route of infection, transmission route</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1567,6 +1609,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -3540,38 +3588,38 @@
   <sheetData>
     <row r="1" spans="1:50" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>225</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>47</v>
       </c>
       <c r="I1" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>226</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>227</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>91</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>78</v>
@@ -3583,7 +3631,7 @@
         <v>130</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>33</v>
@@ -3607,82 +3655,82 @@
         <v>94</v>
       </c>
       <c r="X1" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y1" s="20" t="s">
         <v>134</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA1" s="21" t="s">
         <v>152</v>
       </c>
       <c r="AB1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AD1" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AE1" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AF1" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AG1" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AH1" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AI1" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AK1" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AL1" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AM1" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AN1" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AO1" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AP1" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AR1" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AS1" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="AS1" s="22" t="s">
+      <c r="AT1" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AU1" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="AU1" s="22" t="s">
+      <c r="AV1" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="AV1" s="22" t="s">
+      <c r="AW1" s="22" t="s">
         <v>252</v>
-      </c>
-      <c r="AW1" s="22" t="s">
-        <v>253</v>
       </c>
       <c r="AX1" s="17" t="s">
         <v>171</v>
@@ -3690,210 +3738,210 @@
     </row>
     <row r="2" spans="1:50" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q2" s="24"/>
       <c r="R2" s="24"/>
     </row>
     <row r="3" spans="1:50" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="G5" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="H5" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>262</v>
-      </c>
       <c r="I5" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P5" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:50" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -3906,122 +3954,122 @@
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
       <c r="N6" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="O6" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="O6" s="36" t="s">
-        <v>265</v>
-      </c>
       <c r="P6" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="37"/>
       <c r="R6" s="38"/>
     </row>
     <row r="7" spans="1:50" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="C7" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="K7" s="39" t="s">
+      <c r="L7" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="N7" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="O7" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="M7" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="O7" s="28" t="s">
-        <v>269</v>
-      </c>
       <c r="P7" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:50" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="C8" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M8" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>272</v>
-      </c>
       <c r="N8" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O8" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P8" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:50" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="37"/>
@@ -4046,64 +4094,64 @@
         <v>170</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
@@ -4120,19 +4168,19 @@
     </row>
     <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>277</v>
-      </c>
       <c r="C12" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
@@ -4149,154 +4197,154 @@
     </row>
     <row r="13" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>279</v>
-      </c>
       <c r="C13" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L13" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="31"/>
     </row>
     <row r="14" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="42" t="s">
         <v>280</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>281</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M14" s="41"/>
       <c r="N14" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O14" s="41"/>
       <c r="P14" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>283</v>
-      </c>
       <c r="D15" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M15" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N15" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O15" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P15" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>4</v>
@@ -4344,59 +4392,59 @@
     </row>
     <row r="17" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="N17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="O17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q17" s="45" t="s">
         <v>286</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="J17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="K17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="L17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="M17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="N17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="O17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="P17" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q17" s="45" t="s">
-        <v>287</v>
       </c>
       <c r="R17" s="46"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="31"/>
@@ -4417,7 +4465,7 @@
     </row>
     <row r="19" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="46"/>
@@ -4439,7 +4487,7 @@
     </row>
     <row r="20" spans="1:50" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B20" s="49"/>
       <c r="C20" s="50">
@@ -4589,46 +4637,46 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q21" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="Q21" s="52" t="s">
-        <v>292</v>
-      </c>
       <c r="R21" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S21" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T21" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U21" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="V21" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W21" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="X21" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y21" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z21" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AA21" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AB21" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AC21" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4642,8 +4690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249E6CE8-6792-4D7D-8697-62FBC58BAB4E}">
   <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4658,13 +4706,13 @@
     <col min="14" max="14" width="9.140625" style="12"/>
     <col min="15" max="15" width="12.42578125" style="60" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" style="3" customWidth="1"/>
-    <col min="17" max="21" width="9.140625" style="3"/>
-    <col min="22" max="22" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="3"/>
+    <col min="17" max="22" width="9.140625" style="3"/>
+    <col min="23" max="23" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4699,10 +4747,10 @@
         <v>169</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>173</v>
@@ -4711,10 +4759,10 @@
         <v>185</v>
       </c>
       <c r="O1" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>0</v>
@@ -4729,25 +4777,25 @@
         <v>176</v>
       </c>
       <c r="U1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="AB1" s="4" t="s">
         <v>180</v>
@@ -4798,16 +4846,16 @@
         <v>12</v>
       </c>
       <c r="K2" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L2" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="12"/>
       <c r="O2" s="60"/>
       <c r="P2" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q2" s="54">
         <v>131</v>
@@ -4819,11 +4867,13 @@
       <c r="T2" s="3">
         <v>14</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3"/>
+      <c r="U2" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -4867,16 +4917,16 @@
         <v>12</v>
       </c>
       <c r="K3" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L3" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="12"/>
       <c r="O3" s="60"/>
       <c r="P3" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q3" s="54">
         <v>11</v>
@@ -4888,12 +4938,14 @@
       <c r="T3" s="3">
         <v>11</v>
       </c>
-      <c r="U3" s="3"/>
+      <c r="U3" s="9" t="s">
+        <v>322</v>
+      </c>
       <c r="V3" s="3"/>
-      <c r="W3" s="3">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
@@ -4935,10 +4987,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M4" s="3">
         <v>2022</v>
@@ -4948,7 +5000,7 @@
       </c>
       <c r="O4" s="60"/>
       <c r="P4" s="58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q4" s="54">
         <v>32</v>
@@ -4958,17 +5010,17 @@
       <c r="T4" s="3">
         <v>15</v>
       </c>
-      <c r="U4" s="3"/>
+      <c r="U4" s="66">
+        <v>1</v>
+      </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="3">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
@@ -5007,19 +5059,22 @@
         <v>12</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L5" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P5" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="54">
         <v>51</v>
       </c>
       <c r="T5" s="3">
         <v>32</v>
+      </c>
+      <c r="U5" s="54" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -5054,19 +5109,22 @@
         <v>12</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P6" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q6" s="54">
         <v>10</v>
       </c>
       <c r="T6" s="3">
         <v>6</v>
+      </c>
+      <c r="U6" s="54" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -5101,13 +5159,13 @@
         <v>12</v>
       </c>
       <c r="K7" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L7" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P7" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="54">
         <v>184</v>
@@ -5117,6 +5175,9 @@
       </c>
       <c r="T7" s="3">
         <v>24</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -5151,19 +5212,22 @@
         <v>12</v>
       </c>
       <c r="K8" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L8" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P8" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="54">
         <v>21</v>
       </c>
       <c r="R8" s="3">
         <v>2</v>
+      </c>
+      <c r="U8" s="54" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -5198,19 +5262,22 @@
         <v>50</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L9" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P9" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q9" s="54">
         <v>11</v>
       </c>
       <c r="T9" s="3">
         <v>5</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -5245,19 +5312,22 @@
         <v>50</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P10" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="54">
         <v>3</v>
       </c>
       <c r="T10" s="3">
         <v>2</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -5292,10 +5362,10 @@
         <v>50</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M11" s="3">
         <v>2022</v>
@@ -5304,7 +5374,7 @@
         <v>191</v>
       </c>
       <c r="P11" s="58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q11" s="54">
         <v>1</v>
@@ -5314,6 +5384,9 @@
       </c>
       <c r="T11" s="3">
         <v>6</v>
+      </c>
+      <c r="U11" s="54" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -5348,13 +5421,13 @@
         <v>12</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L12" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P12" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q12" s="54">
         <v>218</v>
@@ -5364,6 +5437,9 @@
       </c>
       <c r="T12" s="3">
         <v>48</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -5398,19 +5474,22 @@
         <v>12</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L13" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P13" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="54">
         <v>19</v>
       </c>
       <c r="T13" s="3">
         <v>5</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
@@ -5445,16 +5524,16 @@
         <v>12</v>
       </c>
       <c r="K14" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L14" s="64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M14" s="3">
         <v>2022</v>
       </c>
       <c r="P14" s="58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="54">
         <v>298</v>
@@ -5465,7 +5544,7 @@
       <c r="T14" s="3">
         <v>5</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="U14" s="66">
         <v>1</v>
       </c>
     </row>
@@ -5501,10 +5580,10 @@
         <v>12</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M15" s="3">
         <v>2022</v>
@@ -5521,7 +5600,7 @@
       <c r="T15" s="3">
         <v>17</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="U15" s="66">
         <v>1</v>
       </c>
     </row>
@@ -5554,10 +5633,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M16" s="3">
         <v>2022</v>
@@ -5565,14 +5644,17 @@
       <c r="N16" s="13"/>
       <c r="O16" s="61"/>
       <c r="P16" s="58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="54"/>
-      <c r="V16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U16" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -5604,10 +5686,10 @@
         <v>12</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M17" s="10">
         <v>2017</v>
@@ -5615,17 +5697,20 @@
       <c r="N17" s="13"/>
       <c r="O17" s="61"/>
       <c r="P17" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="54"/>
-      <c r="W17" s="3">
-        <v>1</v>
+      <c r="U17" s="54" t="s">
+        <v>324</v>
       </c>
       <c r="X17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -5657,10 +5742,10 @@
         <v>12</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L18" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M18" s="10">
         <v>2017</v>
@@ -5668,19 +5753,22 @@
       <c r="N18" s="13"/>
       <c r="O18" s="61"/>
       <c r="P18" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q18" s="54">
         <v>12</v>
       </c>
-      <c r="W18" s="3">
-        <v>1</v>
+      <c r="U18" s="54" t="s">
+        <v>324</v>
       </c>
       <c r="X18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -5712,10 +5800,10 @@
         <v>12</v>
       </c>
       <c r="K19" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L19" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M19" s="10">
         <v>2017</v>
@@ -5723,16 +5811,19 @@
       <c r="N19" s="13"/>
       <c r="O19" s="61"/>
       <c r="P19" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="54">
         <v>1</v>
       </c>
-      <c r="V19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U19" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -5764,10 +5855,10 @@
         <v>12</v>
       </c>
       <c r="K20" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M20" s="10">
         <v>2017</v>
@@ -5775,7 +5866,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="61"/>
       <c r="P20" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q20" s="54">
         <v>131</v>
@@ -5786,14 +5877,14 @@
       <c r="T20" s="3">
         <v>25</v>
       </c>
-      <c r="V20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U20" s="66" t="s">
+        <v>325</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -5825,10 +5916,10 @@
         <v>12</v>
       </c>
       <c r="K21" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L21" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M21" s="10">
         <v>2017</v>
@@ -5836,16 +5927,19 @@
       <c r="N21" s="13"/>
       <c r="O21" s="61"/>
       <c r="P21" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q21" s="54">
         <v>6</v>
       </c>
-      <c r="W21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U21" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="X21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
@@ -5877,10 +5971,10 @@
         <v>12</v>
       </c>
       <c r="K22" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L22" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M22" s="10">
         <v>2017</v>
@@ -5888,16 +5982,19 @@
       <c r="N22" s="13"/>
       <c r="O22" s="61"/>
       <c r="P22" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q22" s="54">
         <v>3</v>
       </c>
-      <c r="X22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U22" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
@@ -5929,16 +6026,16 @@
         <v>12</v>
       </c>
       <c r="K23" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L23" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M23" s="3">
         <v>2022</v>
       </c>
       <c r="P23" s="58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q23" s="54">
         <v>2</v>
@@ -5946,11 +6043,14 @@
       <c r="R23" s="3">
         <v>1</v>
       </c>
-      <c r="V23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U23" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
@@ -5982,25 +6082,28 @@
         <v>12</v>
       </c>
       <c r="K24" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M24" s="3">
         <v>2022</v>
       </c>
       <c r="P24" s="58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q24" s="54">
         <v>9</v>
       </c>
-      <c r="X24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U24" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -6032,10 +6135,10 @@
         <v>12</v>
       </c>
       <c r="K25" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L25" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M25" s="10">
         <v>2017</v>
@@ -6043,14 +6146,17 @@
       <c r="N25" s="13"/>
       <c r="O25" s="61"/>
       <c r="P25" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="54"/>
-      <c r="W25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U25" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="X25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -6082,10 +6188,10 @@
         <v>50</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L26" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M26" s="10">
         <v>2017</v>
@@ -6093,16 +6199,19 @@
       <c r="N26" s="13"/>
       <c r="O26" s="61"/>
       <c r="P26" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q26" s="54">
         <v>27</v>
       </c>
-      <c r="V26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U26" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="W26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -6134,10 +6243,10 @@
         <v>12</v>
       </c>
       <c r="K27" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L27" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M27" s="10">
         <v>2017</v>
@@ -6145,16 +6254,19 @@
       <c r="N27" s="13"/>
       <c r="O27" s="61"/>
       <c r="P27" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q27" s="54">
         <v>19</v>
       </c>
-      <c r="W27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U27" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="X27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>75</v>
       </c>
@@ -6186,10 +6298,10 @@
         <v>12</v>
       </c>
       <c r="K28" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L28" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M28" s="10">
         <v>2017</v>
@@ -6197,16 +6309,19 @@
       <c r="N28" s="13"/>
       <c r="O28" s="61"/>
       <c r="P28" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q28" s="54">
         <v>5</v>
       </c>
-      <c r="X28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U28" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -6238,10 +6353,10 @@
         <v>85</v>
       </c>
       <c r="K29" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L29" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M29" s="10">
         <v>2017</v>
@@ -6249,16 +6364,19 @@
       <c r="N29" s="13"/>
       <c r="O29" s="61"/>
       <c r="P29" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q29" s="54">
         <v>4</v>
       </c>
-      <c r="V29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U29" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="W29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>86</v>
       </c>
@@ -6290,10 +6408,10 @@
         <v>12</v>
       </c>
       <c r="K30" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L30" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M30" s="10">
         <v>2017</v>
@@ -6301,16 +6419,19 @@
       <c r="N30" s="13"/>
       <c r="O30" s="61"/>
       <c r="P30" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q30" s="54">
         <v>2</v>
       </c>
-      <c r="X30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U30" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>93</v>
       </c>
@@ -6342,25 +6463,28 @@
         <v>12</v>
       </c>
       <c r="K31" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L31" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M31" s="3">
         <v>2022</v>
       </c>
       <c r="P31" s="58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q31" s="54">
         <v>11</v>
       </c>
-      <c r="X31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U31" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>96</v>
       </c>
@@ -6389,10 +6513,10 @@
         <v>12</v>
       </c>
       <c r="K32" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L32" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M32" s="10">
         <v>2017</v>
@@ -6400,14 +6524,17 @@
       <c r="N32" s="13"/>
       <c r="O32" s="61"/>
       <c r="P32" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q32" s="54"/>
-      <c r="W32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U32" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="X32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>99</v>
       </c>
@@ -6439,25 +6566,28 @@
         <v>85</v>
       </c>
       <c r="K33" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L33" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M33" s="3">
         <v>2022</v>
       </c>
       <c r="P33" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q33" s="54">
         <v>50</v>
       </c>
-      <c r="Y33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U33" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>106</v>
       </c>
@@ -6486,10 +6616,10 @@
         <v>12</v>
       </c>
       <c r="K34" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L34" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M34" s="10">
         <v>2017</v>
@@ -6497,16 +6627,19 @@
       <c r="N34" s="13"/>
       <c r="O34" s="61"/>
       <c r="P34" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q34" s="54">
         <v>1</v>
       </c>
-      <c r="W34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U34" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="X34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>109</v>
       </c>
@@ -6538,10 +6671,10 @@
         <v>12</v>
       </c>
       <c r="K35" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L35" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M35" s="10">
         <v>2017</v>
@@ -6549,14 +6682,17 @@
       <c r="N35" s="13"/>
       <c r="O35" s="61"/>
       <c r="P35" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q35" s="54"/>
-      <c r="X35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U35" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>112</v>
       </c>
@@ -6588,10 +6724,10 @@
         <v>12</v>
       </c>
       <c r="K36" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M36" s="3">
         <v>2022</v>
@@ -6600,11 +6736,14 @@
         <v>10</v>
       </c>
       <c r="Q36" s="54"/>
-      <c r="V36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U36" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="W36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>118</v>
       </c>
@@ -6636,10 +6775,10 @@
         <v>12</v>
       </c>
       <c r="K37" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L37" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M37" s="10">
         <v>2017</v>
@@ -6647,14 +6786,17 @@
       <c r="N37" s="13"/>
       <c r="O37" s="61"/>
       <c r="P37" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q37" s="54"/>
-      <c r="W37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U37" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="X37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>121</v>
       </c>
@@ -6686,10 +6828,10 @@
         <v>12</v>
       </c>
       <c r="K38" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L38" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M38" s="10">
         <v>2017</v>
@@ -6697,14 +6839,17 @@
       <c r="N38" s="13"/>
       <c r="O38" s="61"/>
       <c r="P38" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q38" s="54"/>
-      <c r="X38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U38" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>133</v>
       </c>
@@ -6736,10 +6881,10 @@
         <v>12</v>
       </c>
       <c r="K39" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L39" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M39" s="10">
         <v>2017</v>
@@ -6747,16 +6892,19 @@
       <c r="N39" s="13"/>
       <c r="O39" s="61"/>
       <c r="P39" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q39" s="54">
         <v>13</v>
       </c>
-      <c r="W39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U39" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="X39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55" t="s">
         <v>171</v>
       </c>
@@ -6783,8 +6931,11 @@
       <c r="R40" s="56">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U40" s="54" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>139</v>
       </c>
@@ -6816,10 +6967,10 @@
         <v>12</v>
       </c>
       <c r="K41" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M41" s="3">
         <v>2022</v>
@@ -6828,14 +6979,17 @@
         <v>10</v>
       </c>
       <c r="Q41" s="54"/>
-      <c r="W41" s="3">
-        <v>1</v>
+      <c r="U41" s="54" t="s">
+        <v>324</v>
       </c>
       <c r="X41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>142</v>
       </c>
@@ -6864,16 +7018,16 @@
         <v>12</v>
       </c>
       <c r="K42" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M42" s="3">
         <v>2022</v>
       </c>
       <c r="P42" s="58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q42" s="54">
         <v>9</v>
@@ -6881,11 +7035,14 @@
       <c r="R42" s="3">
         <v>1</v>
       </c>
-      <c r="X42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U42" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>145</v>
       </c>
@@ -6917,10 +7074,10 @@
         <v>12</v>
       </c>
       <c r="K43" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M43" s="3">
         <v>2022</v>
@@ -6929,11 +7086,14 @@
         <v>10</v>
       </c>
       <c r="Q43" s="54"/>
-      <c r="V43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U43" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="W43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>148</v>
       </c>
@@ -6965,10 +7125,10 @@
         <v>12</v>
       </c>
       <c r="K44" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M44" s="3">
         <v>2022</v>
@@ -6982,11 +7142,14 @@
       <c r="R44" s="3">
         <v>3</v>
       </c>
-      <c r="X44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U44" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>151</v>
       </c>
@@ -7018,10 +7181,10 @@
         <v>12</v>
       </c>
       <c r="K45" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M45" s="3">
         <v>2022</v>
@@ -7038,8 +7201,8 @@
       <c r="T45" s="3">
         <v>2</v>
       </c>
-      <c r="V45" s="3">
-        <v>1</v>
+      <c r="U45" s="54" t="s">
+        <v>324</v>
       </c>
       <c r="W45" s="3">
         <v>1</v>
@@ -7047,8 +7210,11 @@
       <c r="X45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>164</v>
       </c>
@@ -7080,10 +7246,10 @@
         <v>12</v>
       </c>
       <c r="K46" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L46" s="56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M46" s="10">
         <v>2017</v>
@@ -7094,11 +7260,14 @@
         <v>22</v>
       </c>
       <c r="Q46" s="54"/>
-      <c r="X46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U46" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>155</v>
       </c>
@@ -7130,10 +7299,10 @@
         <v>12</v>
       </c>
       <c r="K47" s="56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M47" s="3">
         <v>2022</v>
@@ -7144,11 +7313,14 @@
       <c r="Q47" s="54">
         <v>6</v>
       </c>
-      <c r="X47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U47" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>158</v>
       </c>
@@ -7180,16 +7352,16 @@
         <v>12</v>
       </c>
       <c r="K48" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M48" s="3">
         <v>2022</v>
       </c>
       <c r="P48" s="58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q48" s="54">
         <v>24</v>
@@ -7197,11 +7369,14 @@
       <c r="R48" s="3">
         <v>4</v>
       </c>
-      <c r="X48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U48" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>161</v>
       </c>
@@ -7233,10 +7408,10 @@
         <v>12</v>
       </c>
       <c r="K49" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M49" s="10">
         <v>2017</v>
@@ -7249,7 +7424,10 @@
       <c r="Q49" s="54">
         <v>6</v>
       </c>
-      <c r="X49" s="3">
+      <c r="U49" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y49" s="3">
         <v>1</v>
       </c>
     </row>
@@ -7796,10 +7974,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E475B9F-41DE-453B-92B0-16661F334DF3}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7811,7 +7989,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>199</v>
       </c>
@@ -7825,12 +8003,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -7844,7 +8022,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>201</v>
       </c>
@@ -7852,7 +8030,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -7860,113 +8038,132 @@
         <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>204</v>
       </c>
-      <c r="C6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="65" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>175</v>
       </c>
-      <c r="D8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+      <c r="L8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>317</v>
+      </c>
+      <c r="M9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>176</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>205</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>179</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>195</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>208</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>210</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="62" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D27" s="62" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="63" t="s">
-        <v>308</v>
+      <c r="D28" s="62" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="63" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -7976,23 +8173,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="52ea4a7c-6901-4db7-900e-b45097d0ff93" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100762F5BF7DFE93B458B0D4F43E4DE8887" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="041dbeef2d561d94de62a9be1ffa9937">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52ea4a7c-6901-4db7-900e-b45097d0ff93" xmlns:ns3="b91e0b92-9886-4e14-80a4-fdc3dbc12466" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8247379195e0f514290f689e79bcbf3b" ns2:_="" ns3:_="">
     <xsd:import namespace="52ea4a7c-6901-4db7-900e-b45097d0ff93"/>
@@ -8209,25 +8389,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACF7FD7-0294-44CF-A08E-BCEC28737BB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBDA711-F404-4C5B-BB2C-544733B5993A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52ea4a7c-6901-4db7-900e-b45097d0ff93"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="52ea4a7c-6901-4db7-900e-b45097d0ff93" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{226BF2DD-853D-4534-94F9-FF654FF52CE2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8244,4 +8423,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACF7FD7-0294-44CF-A08E-BCEC28737BB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBDA711-F404-4C5B-BB2C-544733B5993A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52ea4a7c-6901-4db7-900e-b45097d0ff93"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/diseases-list.xlsx
+++ b/inst/diseases-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\GitHub\EFSA-disease-profiles\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4E5E2-9EE2-4EDC-8BE2-ED11EF926244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D9D5A8-B69B-455E-9EB5-EFBEB103E115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="4" xr2:uid="{0ACB5481-8904-4757-9496-FA4100A86F68}"/>
   </bookViews>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="348">
   <si>
     <t>Disease</t>
   </si>
@@ -1123,9 +1123,6 @@
     <t>NEW: clinical signs, severity/impact?, #papers/groups with CS, Ro, anything else. LEFT: tech disease cards</t>
   </si>
   <si>
-    <t>RUN ALL DISEASES</t>
-  </si>
-  <si>
     <t>TechDz card-AH</t>
   </si>
   <si>
@@ -1141,84 +1138,152 @@
     <t>https://www.who.int/data/gho/map-gallery-search-results?&amp;maptopics=82c0d61f-ccfd-41df-b9bd-3fc98bc84093</t>
   </si>
   <si>
-    <t>do all in github with IGNORE HTML PNG</t>
+    <t>zoonotic, no WHO maps found</t>
+  </si>
+  <si>
+    <t>review LEFT side and title once new tab added</t>
+  </si>
+  <si>
+    <t>review right side - all runing?</t>
+  </si>
+  <si>
+    <t>all running?</t>
+  </si>
+  <si>
+    <t>all running? Automated</t>
+  </si>
+  <si>
+    <t>Not allowed</t>
+  </si>
+  <si>
+    <t>Never reviewed</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>No EU vaccine</t>
+  </si>
+  <si>
+    <t>8ref old data</t>
+  </si>
+  <si>
+    <t>1 vax, no refs</t>
+  </si>
+  <si>
+    <t>2 vax, no refs</t>
+  </si>
+  <si>
+    <t>3vax, 1 ref, miss some outputs</t>
+  </si>
+  <si>
+    <t>3 vax, no refs</t>
+  </si>
+  <si>
+    <t>from each profile, a link to the gallery</t>
+  </si>
+  <si>
+    <t>fix error: HPAI and diseases which is not blood</t>
+  </si>
+  <si>
+    <t>improve: route of infection, transmission route</t>
+  </si>
+  <si>
+    <t>links (to dz cards) directly on the left side if we write as HTML?</t>
+  </si>
+  <si>
+    <t>ceck 26 EHDV transmission, error</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">copy Github files INTO azure workflow (EXCELS ALSO TO BE REPLACED), make sure </t>
+      <t xml:space="preserve">OLD DATA - </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>do nothing for now so that old files stay as is, review ater reviwing the new ones with EFSA</t>
+    </r>
+  </si>
+  <si>
+    <t>SEVERITY</t>
+  </si>
+  <si>
+    <t>IMPACT (see disease prioritization)</t>
+  </si>
+  <si>
+    <t>better tables overall!</t>
+  </si>
+  <si>
+    <t>efficacy x coverage?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">transmission rate? Route of infection. </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>NOT TO REPLACE GITIGNORE</t>
+      <t xml:space="preserve">Matrices other than blood </t>
     </r>
-  </si>
-  <si>
-    <t>zoonotic, no WHO maps found</t>
-  </si>
-  <si>
-    <t>review LEFT side and title once new tab added</t>
-  </si>
-  <si>
-    <t>transmission rate? Route of infection. Matrices other than blood (HPAI swabs) Egg/vertical transmission</t>
-  </si>
-  <si>
-    <t>review right side - all runing?</t>
-  </si>
-  <si>
-    <t>all running?</t>
-  </si>
-  <si>
-    <t>all running? Automated</t>
-  </si>
-  <si>
-    <t>Not allowed</t>
-  </si>
-  <si>
-    <t>Never reviewed</t>
-  </si>
-  <si>
-    <t>Not available</t>
-  </si>
-  <si>
-    <t>No EU vaccine</t>
-  </si>
-  <si>
-    <t>8ref old data</t>
-  </si>
-  <si>
-    <t>1 vax, no refs</t>
-  </si>
-  <si>
-    <t>2 vax, no refs</t>
-  </si>
-  <si>
-    <t>3vax, 1 ref, miss some outputs</t>
-  </si>
-  <si>
-    <t>3 vax, no refs</t>
-  </si>
-  <si>
-    <t>from each profile, a link to the gallery</t>
-  </si>
-  <si>
-    <t>fix error: HPAI and diseases which is not blood</t>
-  </si>
-  <si>
-    <t>improve: route of infection, transmission route</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(HPAI swabs) Egg/vertical transmission</t>
+    </r>
+  </si>
+  <si>
+    <t>all tables should allow sorting (better tables, vaccine, disease, ref, etc)</t>
+  </si>
+  <si>
+    <t>Disease tab improvements wished</t>
+  </si>
+  <si>
+    <t>outbreaks - name of COUNTRIES and SPECIES upon hover</t>
+  </si>
+  <si>
+    <t>ExpInfection</t>
+  </si>
+  <si>
+    <t>should have had refs</t>
+  </si>
+  <si>
+    <t>NO CS INFO</t>
+  </si>
+  <si>
+    <t>CCHFV for example - no CS, but "on purpose" - fo rnow removed. Check how to convey this idea.</t>
+  </si>
+  <si>
+    <t>dashboard panel doesn't adjust to size of the table</t>
+  </si>
+  <si>
+    <t>NO REF</t>
+  </si>
+  <si>
+    <t>WC PER SPECIES</t>
+  </si>
+  <si>
+    <t>more clear (and automated) last year of update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,16 +1370,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1399,6 +1456,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1428,7 +1497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1465,10 +1534,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1576,9 +1642,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1615,6 +1678,23 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -1928,7 +2008,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3580,307 +3660,307 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="40" customWidth="1"/>
-    <col min="3" max="16" width="11.42578125" style="29" customWidth="1"/>
-    <col min="17" max="18" width="7.5703125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="39" customWidth="1"/>
+    <col min="3" max="16" width="11.42578125" style="28" customWidth="1"/>
+    <col min="17" max="18" width="7.5703125" style="28" customWidth="1"/>
     <col min="19" max="49" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AI1" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AK1" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AL1" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AM1" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AN1" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AO1" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AP1" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AR1" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="AS1" s="22" t="s">
+      <c r="AS1" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AT1" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="AU1" s="22" t="s">
+      <c r="AU1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="AV1" s="22" t="s">
+      <c r="AV1" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="AW1" s="22" t="s">
+      <c r="AW1" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="AX1" s="17" t="s">
+      <c r="AX1" s="16" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-    </row>
-    <row r="3" spans="1:50" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:50" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="26" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3888,794 +3968,794 @@
       <c r="A5" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="Q5" s="31"/>
-    </row>
-    <row r="6" spans="1:50" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="Q5" s="30"/>
+    </row>
+    <row r="6" spans="1:50" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="27" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="35" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="O6" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="38"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="37"/>
     </row>
     <row r="7" spans="1:50" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>265</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="Q7" s="31"/>
+      <c r="Q7" s="30"/>
     </row>
     <row r="8" spans="1:50" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>269</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="Q8" s="31"/>
-    </row>
-    <row r="9" spans="1:50" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="Q8" s="30"/>
+    </row>
+    <row r="9" spans="1:50" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="38"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37"/>
     </row>
     <row r="10" spans="1:50" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="N10" s="27" t="s">
+      <c r="N10" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="O10" s="27" t="s">
+      <c r="O10" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="Q10" s="31"/>
+      <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>274</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="31"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="31"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="30"/>
     </row>
     <row r="13" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>277</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="M13" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="N13" s="27" t="s">
+      <c r="N13" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="P13" s="28" t="s">
+      <c r="P13" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="Q13" s="31"/>
+      <c r="Q13" s="30"/>
     </row>
     <row r="14" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>279</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="30" t="s">
+      <c r="M14" s="40"/>
+      <c r="N14" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="O14" s="41"/>
-      <c r="P14" s="30" t="s">
+      <c r="O14" s="40"/>
+      <c r="P14" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="Q14" s="31"/>
+      <c r="Q14" s="30"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>281</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="O15" s="39" t="s">
+      <c r="O15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="Q15" s="31"/>
+      <c r="Q15" s="30"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="27" t="s">
+      <c r="M16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="N16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="P16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Q16" s="31"/>
-    </row>
-    <row r="17" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="Q16" s="30"/>
+    </row>
+    <row r="17" spans="1:50" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="K17" s="45" t="s">
+      <c r="K17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="L17" s="45" t="s">
+      <c r="L17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="M17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="N17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="O17" s="45" t="s">
+      <c r="O17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="P17" s="45" t="s">
+      <c r="P17" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="Q17" s="45" t="s">
+      <c r="Q17" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="R17" s="46"/>
+      <c r="R17" s="45"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>287</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-    </row>
-    <row r="19" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+    </row>
+    <row r="19" spans="1:50" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-    </row>
-    <row r="20" spans="1:50" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+    </row>
+    <row r="20" spans="1:50" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50">
-        <v>1</v>
-      </c>
-      <c r="D20" s="50">
+      <c r="B20" s="48"/>
+      <c r="C20" s="49">
+        <v>1</v>
+      </c>
+      <c r="D20" s="49">
         <v>3</v>
       </c>
-      <c r="E20" s="50">
+      <c r="E20" s="49">
         <v>2</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="49">
         <v>4</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="49">
         <v>5</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="49">
         <v>8</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="49">
         <v>12</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="49">
         <v>14</v>
       </c>
-      <c r="K20" s="50">
+      <c r="K20" s="49">
         <v>13</v>
       </c>
-      <c r="L20" s="50">
+      <c r="L20" s="49">
         <v>11</v>
       </c>
-      <c r="M20" s="50">
+      <c r="M20" s="49">
         <v>10</v>
       </c>
-      <c r="N20" s="50">
+      <c r="N20" s="49">
         <v>9</v>
       </c>
-      <c r="O20" s="50">
+      <c r="O20" s="49">
         <v>7</v>
       </c>
-      <c r="P20" s="50">
+      <c r="P20" s="49">
         <v>6</v>
       </c>
-      <c r="Q20" s="51">
+      <c r="Q20" s="50">
         <v>19</v>
       </c>
-      <c r="R20" s="51">
+      <c r="R20" s="50">
         <v>22</v>
       </c>
-      <c r="S20" s="48">
+      <c r="S20" s="47">
         <v>23</v>
       </c>
-      <c r="T20" s="48">
+      <c r="T20" s="47">
         <v>48</v>
       </c>
-      <c r="U20" s="48">
+      <c r="U20" s="47">
         <v>24</v>
       </c>
-      <c r="V20" s="48">
+      <c r="V20" s="47">
         <v>26</v>
       </c>
-      <c r="W20" s="48">
+      <c r="W20" s="47">
         <v>30</v>
       </c>
-      <c r="X20" s="48">
+      <c r="X20" s="47">
         <v>35</v>
       </c>
-      <c r="Y20" s="48">
+      <c r="Y20" s="47">
         <v>38</v>
       </c>
-      <c r="Z20" s="48">
+      <c r="Z20" s="47">
         <v>43</v>
       </c>
-      <c r="AA20" s="48">
+      <c r="AA20" s="47">
         <v>44</v>
       </c>
-      <c r="AB20" s="48">
+      <c r="AB20" s="47">
         <v>47</v>
       </c>
-      <c r="AC20" s="48">
+      <c r="AC20" s="47">
         <v>32</v>
       </c>
-      <c r="AD20" s="48">
+      <c r="AD20" s="47">
         <v>16</v>
       </c>
-      <c r="AE20" s="48">
+      <c r="AE20" s="47">
         <v>17</v>
       </c>
-      <c r="AF20" s="48">
+      <c r="AF20" s="47">
         <v>15</v>
       </c>
-      <c r="AG20" s="48">
+      <c r="AG20" s="47">
         <v>18</v>
       </c>
-      <c r="AH20" s="48">
+      <c r="AH20" s="47">
         <v>20</v>
       </c>
-      <c r="AI20" s="48">
+      <c r="AI20" s="47">
         <v>21</v>
       </c>
-      <c r="AJ20" s="48">
+      <c r="AJ20" s="47">
         <v>25</v>
       </c>
-      <c r="AK20" s="48">
+      <c r="AK20" s="47">
         <v>27</v>
       </c>
-      <c r="AL20" s="48">
+      <c r="AL20" s="47">
         <v>28</v>
       </c>
-      <c r="AM20" s="48">
+      <c r="AM20" s="47">
         <v>29</v>
       </c>
-      <c r="AN20" s="48">
+      <c r="AN20" s="47">
         <v>31</v>
       </c>
-      <c r="AO20" s="48">
+      <c r="AO20" s="47">
         <v>33</v>
       </c>
-      <c r="AP20" s="48">
+      <c r="AP20" s="47">
         <v>34</v>
       </c>
-      <c r="AQ20" s="48">
+      <c r="AQ20" s="47">
         <v>36</v>
       </c>
-      <c r="AR20" s="48">
+      <c r="AR20" s="47">
         <v>37</v>
       </c>
-      <c r="AS20" s="48">
+      <c r="AS20" s="47">
         <v>40</v>
       </c>
-      <c r="AT20" s="48">
+      <c r="AT20" s="47">
         <v>41</v>
       </c>
-      <c r="AU20" s="48">
+      <c r="AU20" s="47">
         <v>42</v>
       </c>
-      <c r="AV20" s="48">
+      <c r="AV20" s="47">
         <v>46</v>
       </c>
-      <c r="AW20" s="48">
+      <c r="AW20" s="47">
         <v>45</v>
       </c>
-      <c r="AX20" s="48">
+      <c r="AX20" s="47">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="Q21" s="52" t="s">
+      <c r="Q21" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="R21" s="52" t="s">
+      <c r="R21" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="S21" s="52" t="s">
+      <c r="S21" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="T21" s="52" t="s">
+      <c r="T21" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="U21" s="52" t="s">
+      <c r="U21" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="V21" s="52" t="s">
+      <c r="V21" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="W21" s="52" t="s">
+      <c r="W21" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="X21" s="52" t="s">
+      <c r="X21" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="Y21" s="52" t="s">
+      <c r="Y21" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="Z21" s="52" t="s">
+      <c r="Z21" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="AA21" s="52" t="s">
+      <c r="AA21" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="AB21" s="52" t="s">
+      <c r="AB21" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="AC21" s="52" t="s">
+      <c r="AC21" s="51" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4688,10 +4768,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249E6CE8-6792-4D7D-8697-62FBC58BAB4E}">
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4700,22 +4780,24 @@
     <col min="2" max="2" width="7" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="4.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="3" customWidth="1"/>
     <col min="11" max="12" width="13.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="12"/>
-    <col min="15" max="15" width="12.42578125" style="60" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="58" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" style="3" customWidth="1"/>
-    <col min="17" max="22" width="9.140625" style="3"/>
-    <col min="23" max="23" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="3"/>
+    <col min="17" max="17" width="12" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="52"/>
+    <col min="19" max="23" width="9.140625" style="3"/>
+    <col min="24" max="24" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4743,7 +4825,7 @@
       <c r="I1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="4" t="s">
         <v>169</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -4758,63 +4840,66 @@
       <c r="N1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="O1" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="Q1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AG1" s="15"/>
-    </row>
-    <row r="2" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH1" s="14"/>
+    </row>
+    <row r="2" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -4842,39 +4927,39 @@
       <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="12"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="56" t="s">
+      <c r="O2" s="58"/>
+      <c r="P2" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q2" s="54">
+      <c r="Q2" s="65"/>
+      <c r="R2" s="52">
         <v>131</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="3">
         <v>22</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3">
         <v>14</v>
       </c>
-      <c r="U2" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3">
-        <v>1</v>
-      </c>
-      <c r="X2" s="3"/>
+      <c r="V2" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
@@ -4883,9 +4968,10 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
-      <c r="AG2" s="15"/>
-    </row>
-    <row r="3" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="14"/>
+    </row>
+    <row r="3" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4913,40 +4999,40 @@
       <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="K3" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="12"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="58"/>
+      <c r="P3" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q3" s="54">
+      <c r="Q3" s="65"/>
+      <c r="R3" s="52">
         <v>11</v>
       </c>
-      <c r="R3" s="3">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3">
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3">
         <v>11</v>
       </c>
-      <c r="U3" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="V3" s="3"/>
+      <c r="V3" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
@@ -4954,8 +5040,9 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
-    </row>
-    <row r="4" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG3" s="3"/>
+    </row>
+    <row r="4" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>127</v>
       </c>
@@ -4983,51 +5070,52 @@
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="67">
         <v>2022</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="O4" s="60"/>
-      <c r="P4" s="58" t="s">
+      <c r="O4" s="58"/>
+      <c r="P4" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="Q4" s="54">
+      <c r="Q4" s="69"/>
+      <c r="R4" s="52">
         <v>32</v>
       </c>
-      <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="3">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3">
         <v>15</v>
       </c>
-      <c r="U4" s="66">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3"/>
+      <c r="V4" s="64">
+        <v>1</v>
+      </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG4" s="3"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>124</v>
       </c>
@@ -5055,29 +5143,32 @@
       <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="P5" s="56" t="s">
+      <c r="P5" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q5" s="54">
+      <c r="Q5" s="58">
+        <v>0</v>
+      </c>
+      <c r="R5" s="52">
         <v>51</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>32</v>
       </c>
-      <c r="U5" s="54" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V5" s="52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>136</v>
       </c>
@@ -5105,29 +5196,32 @@
       <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="P6" s="56" t="s">
+      <c r="P6" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q6" s="54">
+      <c r="Q6" s="58">
+        <v>0</v>
+      </c>
+      <c r="R6" s="52">
         <v>10</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>6</v>
       </c>
-      <c r="U6" s="54" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V6" s="52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5155,32 +5249,36 @@
       <c r="I7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L7" s="56" t="s">
+      <c r="L7" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="P7" s="56" t="s">
+      <c r="M7" s="10"/>
+      <c r="P7" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7" s="58">
+        <v>0</v>
+      </c>
+      <c r="R7" s="52">
         <v>184</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>6</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>24</v>
       </c>
-      <c r="U7" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V7" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -5208,29 +5306,32 @@
       <c r="I8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="54" t="s">
+      <c r="K8" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L8" s="56" t="s">
+      <c r="L8" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="P8" s="56" t="s">
+      <c r="P8" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q8" s="54">
+      <c r="Q8" s="58">
+        <v>0</v>
+      </c>
+      <c r="R8" s="52">
         <v>21</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2</v>
       </c>
-      <c r="U8" s="54" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V8" s="52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -5258,29 +5359,32 @@
       <c r="I9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L9" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="P9" s="56" t="s">
+      <c r="P9" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q9" s="54">
+      <c r="Q9" s="58">
+        <v>0</v>
+      </c>
+      <c r="R9" s="52">
         <v>11</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5</v>
       </c>
-      <c r="U9" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V9" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -5308,29 +5412,32 @@
       <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="J10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L10" s="56" t="s">
+      <c r="L10" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="P10" s="56" t="s">
+      <c r="P10" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q10" s="54">
+      <c r="Q10" s="58">
+        <v>0</v>
+      </c>
+      <c r="R10" s="52">
         <v>3</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2</v>
       </c>
-      <c r="U10" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V10" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>78</v>
       </c>
@@ -5358,38 +5465,39 @@
       <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="52" t="s">
         <v>292</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M11" s="3">
+        <v>312</v>
+      </c>
+      <c r="M11" s="67">
         <v>2022</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="P11" s="58" t="s">
+      <c r="P11" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="Q11" s="54">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3">
+      <c r="Q11" s="69"/>
+      <c r="R11" s="52">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
         <v>2</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>6</v>
       </c>
-      <c r="U11" s="54" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V11" s="52" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -5417,32 +5525,35 @@
       <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="53" t="s">
+      <c r="J12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L12" s="56" t="s">
+      <c r="L12" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="P12" s="56" t="s">
+      <c r="P12" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q12" s="54">
+      <c r="Q12" s="58">
+        <v>0</v>
+      </c>
+      <c r="R12" s="52">
         <v>218</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>27</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>48</v>
       </c>
-      <c r="U12" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V12" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>103</v>
       </c>
@@ -5470,29 +5581,32 @@
       <c r="I13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="54" t="s">
+      <c r="K13" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L13" s="56" t="s">
+      <c r="L13" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="P13" s="56" t="s">
+      <c r="P13" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q13" s="54">
+      <c r="Q13" s="58">
+        <v>0</v>
+      </c>
+      <c r="R13" s="52">
         <v>19</v>
       </c>
-      <c r="T13" s="3">
+      <c r="U13" s="3">
         <v>5</v>
       </c>
-      <c r="U13" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V13" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -5520,35 +5634,38 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="53" t="s">
+      <c r="J14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="54" t="s">
+      <c r="K14" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L14" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="L14" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="M14" s="67">
         <v>2022</v>
       </c>
-      <c r="P14" s="58" t="s">
+      <c r="P14" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="Q14" s="54">
+      <c r="Q14" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="R14" s="52">
         <v>298</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5</v>
       </c>
-      <c r="U14" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V14" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>115</v>
       </c>
@@ -5576,35 +5693,38 @@
       <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="54" t="s">
+      <c r="K15" s="52" t="s">
         <v>292</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M15" s="3">
+        <v>312</v>
+      </c>
+      <c r="M15" s="67">
         <v>2022</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="54">
+      <c r="Q15" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="R15" s="52">
         <v>150</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>17</v>
       </c>
-      <c r="U15" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="V15" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -5629,32 +5749,34 @@
       <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="53" t="s">
+      <c r="J16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="54" t="s">
         <v>293</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M16" s="3">
+        <v>312</v>
+      </c>
+      <c r="M16" s="67">
         <v>2022</v>
       </c>
       <c r="N16" s="13"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="58" t="s">
+      <c r="O16" s="59"/>
+      <c r="P16" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="Q16" s="54"/>
-      <c r="U16" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="W16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q16" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="V16" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -5682,35 +5804,35 @@
       <c r="I17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="56" t="s">
+      <c r="K17" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L17" s="56" t="s">
+      <c r="L17" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M17" s="10">
         <v>2017</v>
       </c>
       <c r="N17" s="13"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="56" t="s">
+      <c r="O17" s="59"/>
+      <c r="P17" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q17" s="54"/>
-      <c r="U17" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1</v>
+      <c r="Q17" s="70"/>
+      <c r="V17" s="52" t="s">
+        <v>320</v>
       </c>
       <c r="Y17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -5738,37 +5860,38 @@
       <c r="I18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="53" t="s">
+      <c r="J18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L18" s="56" t="s">
+      <c r="L18" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M18" s="10">
         <v>2017</v>
       </c>
       <c r="N18" s="13"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="56" t="s">
+      <c r="O18" s="59"/>
+      <c r="P18" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q18" s="54">
+      <c r="Q18" s="70"/>
+      <c r="R18" s="52">
         <v>12</v>
       </c>
-      <c r="U18" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="X18" s="3">
-        <v>1</v>
+      <c r="V18" s="52" t="s">
+        <v>320</v>
       </c>
       <c r="Y18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -5796,34 +5919,35 @@
       <c r="I19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L19" s="56" t="s">
+      <c r="L19" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M19" s="10">
         <v>2017</v>
       </c>
       <c r="N19" s="13"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="56" t="s">
+      <c r="O19" s="59"/>
+      <c r="P19" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q19" s="54">
-        <v>1</v>
-      </c>
-      <c r="U19" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="W19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q19" s="70"/>
+      <c r="R19" s="52">
+        <v>1</v>
+      </c>
+      <c r="V19" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="X19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -5851,40 +5975,41 @@
       <c r="I20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="54" t="s">
+      <c r="K20" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L20" s="56" t="s">
+      <c r="L20" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M20" s="10">
         <v>2017</v>
       </c>
       <c r="N20" s="13"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="56" t="s">
+      <c r="O20" s="59"/>
+      <c r="P20" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q20" s="54">
+      <c r="Q20" s="70"/>
+      <c r="R20" s="52">
         <v>131</v>
       </c>
-      <c r="R20" s="3">
-        <v>1</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="U20" s="3">
         <v>25</v>
       </c>
-      <c r="U20" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="W20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V20" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -5912,34 +6037,35 @@
       <c r="I21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="53" t="s">
+      <c r="J21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="56" t="s">
+      <c r="K21" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L21" s="56" t="s">
+      <c r="L21" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M21" s="10">
         <v>2017</v>
       </c>
       <c r="N21" s="13"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="56" t="s">
+      <c r="O21" s="59"/>
+      <c r="P21" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q21" s="54">
+      <c r="Q21" s="70"/>
+      <c r="R21" s="52">
         <v>6</v>
       </c>
-      <c r="U21" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="X21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V21" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
@@ -5967,34 +6093,35 @@
       <c r="I22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="53" t="s">
+      <c r="J22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="56" t="s">
+      <c r="K22" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L22" s="56" t="s">
+      <c r="L22" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M22" s="10">
         <v>2017</v>
       </c>
       <c r="N22" s="13"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="56" t="s">
+      <c r="O22" s="59"/>
+      <c r="P22" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q22" s="54">
+      <c r="Q22" s="70"/>
+      <c r="R22" s="52">
         <v>3</v>
       </c>
-      <c r="U22" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V22" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
@@ -6022,35 +6149,38 @@
       <c r="I23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="54" t="s">
+      <c r="K23" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L23" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="L23" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="M23" s="67">
         <v>2022</v>
       </c>
-      <c r="P23" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q23" s="54">
+      <c r="P23" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q23" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="R23" s="52">
         <v>2</v>
       </c>
-      <c r="R23" s="3">
-        <v>1</v>
-      </c>
-      <c r="U23" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S23" s="3">
+        <v>1</v>
+      </c>
+      <c r="V23" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="X23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
@@ -6078,32 +6208,35 @@
       <c r="I24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="53" t="s">
+      <c r="J24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="54" t="s">
+      <c r="K24" s="52" t="s">
         <v>292</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M24" s="3">
+        <v>312</v>
+      </c>
+      <c r="M24" s="67">
         <v>2022</v>
       </c>
-      <c r="P24" s="58" t="s">
+      <c r="P24" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="Q24" s="54">
+      <c r="Q24" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="R24" s="52">
         <v>9</v>
       </c>
-      <c r="U24" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V24" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -6131,32 +6264,32 @@
       <c r="I25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K25" s="54" t="s">
+      <c r="K25" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L25" s="56" t="s">
+      <c r="L25" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M25" s="10">
         <v>2017</v>
       </c>
       <c r="N25" s="13"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="56" t="s">
+      <c r="O25" s="59"/>
+      <c r="P25" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q25" s="54"/>
-      <c r="U25" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="X25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q25" s="70"/>
+      <c r="V25" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -6184,34 +6317,35 @@
       <c r="I26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="53" t="s">
+      <c r="J26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="56" t="s">
+      <c r="K26" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L26" s="56" t="s">
+      <c r="L26" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M26" s="10">
         <v>2017</v>
       </c>
       <c r="N26" s="13"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="56" t="s">
+      <c r="O26" s="59"/>
+      <c r="P26" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q26" s="54">
+      <c r="Q26" s="70"/>
+      <c r="R26" s="52">
         <v>27</v>
       </c>
-      <c r="U26" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="W26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V26" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="X26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -6239,34 +6373,35 @@
       <c r="I27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="54" t="s">
+      <c r="K27" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L27" s="56" t="s">
+      <c r="L27" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M27" s="10">
         <v>2017</v>
       </c>
       <c r="N27" s="13"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="56" t="s">
+      <c r="O27" s="59"/>
+      <c r="P27" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q27" s="54">
+      <c r="Q27" s="70"/>
+      <c r="R27" s="52">
         <v>19</v>
       </c>
-      <c r="U27" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="X27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V27" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>75</v>
       </c>
@@ -6294,34 +6429,35 @@
       <c r="I28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="53" t="s">
+      <c r="J28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="56" t="s">
+      <c r="K28" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L28" s="56" t="s">
+      <c r="L28" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M28" s="10">
         <v>2017</v>
       </c>
       <c r="N28" s="13"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="56" t="s">
+      <c r="O28" s="59"/>
+      <c r="P28" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q28" s="54">
+      <c r="Q28" s="70"/>
+      <c r="R28" s="52">
         <v>5</v>
       </c>
-      <c r="U28" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V28" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -6349,34 +6485,35 @@
       <c r="I29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="53" t="s">
+      <c r="J29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K29" s="56" t="s">
+      <c r="K29" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L29" s="56" t="s">
+      <c r="L29" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M29" s="10">
         <v>2017</v>
       </c>
       <c r="N29" s="13"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="56" t="s">
+      <c r="O29" s="59"/>
+      <c r="P29" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q29" s="54">
+      <c r="Q29" s="70"/>
+      <c r="R29" s="52">
         <v>4</v>
       </c>
-      <c r="U29" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="W29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V29" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="X29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>86</v>
       </c>
@@ -6404,34 +6541,35 @@
       <c r="I30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="53" t="s">
+      <c r="J30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="56" t="s">
+      <c r="K30" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L30" s="56" t="s">
+      <c r="L30" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M30" s="10">
         <v>2017</v>
       </c>
       <c r="N30" s="13"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="56" t="s">
+      <c r="O30" s="59"/>
+      <c r="P30" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q30" s="54">
+      <c r="Q30" s="70"/>
+      <c r="R30" s="52">
         <v>2</v>
       </c>
-      <c r="U30" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V30" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>93</v>
       </c>
@@ -6459,32 +6597,35 @@
       <c r="I31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="53" t="s">
+      <c r="J31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="54" t="s">
+      <c r="K31" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L31" s="64" t="s">
+      <c r="L31" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="67">
         <v>2022</v>
       </c>
-      <c r="P31" s="58" t="s">
+      <c r="P31" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="Q31" s="54">
+      <c r="Q31" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="R31" s="52">
         <v>11</v>
       </c>
-      <c r="U31" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V31" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>96</v>
       </c>
@@ -6509,32 +6650,32 @@
       <c r="I32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="53" t="s">
+      <c r="J32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="56" t="s">
+      <c r="K32" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L32" s="56" t="s">
+      <c r="L32" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M32" s="10">
         <v>2017</v>
       </c>
       <c r="N32" s="13"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="56" t="s">
+      <c r="O32" s="59"/>
+      <c r="P32" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q32" s="54"/>
-      <c r="U32" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="X32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q32" s="70"/>
+      <c r="V32" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>99</v>
       </c>
@@ -6562,32 +6703,35 @@
       <c r="I33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="53" t="s">
+      <c r="J33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K33" s="54" t="s">
+      <c r="K33" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L33" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="L33" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" s="67">
         <v>2022</v>
       </c>
-      <c r="P33" s="58" t="s">
+      <c r="P33" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="Q33" s="54">
+      <c r="Q33" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="R33" s="52">
         <v>50</v>
       </c>
-      <c r="U33" s="67" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V33" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>106</v>
       </c>
@@ -6612,34 +6756,35 @@
       <c r="I34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J34" s="53" t="s">
+      <c r="J34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K34" s="56" t="s">
+      <c r="K34" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L34" s="56" t="s">
+      <c r="L34" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M34" s="10">
         <v>2017</v>
       </c>
       <c r="N34" s="13"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="56" t="s">
+      <c r="O34" s="59"/>
+      <c r="P34" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q34" s="54">
-        <v>1</v>
-      </c>
-      <c r="U34" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="X34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q34" s="70"/>
+      <c r="R34" s="52">
+        <v>1</v>
+      </c>
+      <c r="V34" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>109</v>
       </c>
@@ -6667,32 +6812,32 @@
       <c r="I35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="53" t="s">
+      <c r="J35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K35" s="56" t="s">
+      <c r="K35" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L35" s="56" t="s">
+      <c r="L35" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M35" s="10">
         <v>2017</v>
       </c>
       <c r="N35" s="13"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="56" t="s">
+      <c r="O35" s="59"/>
+      <c r="P35" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q35" s="54"/>
-      <c r="U35" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q35" s="70"/>
+      <c r="V35" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>112</v>
       </c>
@@ -6720,30 +6865,32 @@
       <c r="I36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="53" t="s">
+      <c r="J36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="54" t="s">
+      <c r="K36" s="52" t="s">
         <v>292</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M36" s="3">
+        <v>312</v>
+      </c>
+      <c r="M36" s="67">
         <v>2022</v>
       </c>
       <c r="P36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q36" s="54"/>
-      <c r="U36" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="W36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q36" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="V36" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="X36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>118</v>
       </c>
@@ -6771,32 +6918,32 @@
       <c r="I37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="53" t="s">
+      <c r="J37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K37" s="56" t="s">
+      <c r="K37" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L37" s="56" t="s">
+      <c r="L37" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M37" s="10">
         <v>2017</v>
       </c>
       <c r="N37" s="13"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="56" t="s">
+      <c r="O37" s="59"/>
+      <c r="P37" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q37" s="54"/>
-      <c r="U37" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="X37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q37" s="70"/>
+      <c r="V37" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>121</v>
       </c>
@@ -6824,32 +6971,32 @@
       <c r="I38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="53" t="s">
+      <c r="J38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K38" s="56" t="s">
+      <c r="K38" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L38" s="56" t="s">
+      <c r="L38" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M38" s="10">
         <v>2017</v>
       </c>
       <c r="N38" s="13"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="56" t="s">
+      <c r="O38" s="59"/>
+      <c r="P38" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q38" s="54"/>
-      <c r="U38" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q38" s="70"/>
+      <c r="V38" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>133</v>
       </c>
@@ -6877,65 +7024,67 @@
       <c r="I39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="53" t="s">
+      <c r="J39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="54" t="s">
+      <c r="K39" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="L39" s="56" t="s">
+      <c r="L39" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M39" s="10">
         <v>2017</v>
       </c>
       <c r="N39" s="13"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="56" t="s">
+      <c r="O39" s="59"/>
+      <c r="P39" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="Q39" s="54">
+      <c r="Q39" s="70"/>
+      <c r="R39" s="52">
         <v>13</v>
       </c>
-      <c r="U39" s="67" t="s">
-        <v>327</v>
-      </c>
-      <c r="X39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="V39" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="B40" s="55">
+      <c r="B40" s="53">
         <v>39</v>
       </c>
-      <c r="I40" s="56" t="s">
+      <c r="I40" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="56" t="s">
+      <c r="L40" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="M40" s="57">
+      <c r="M40" s="55">
         <v>2017</v>
       </c>
-      <c r="N40" s="57"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="56" t="s">
+      <c r="N40" s="55"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="Q40" s="54">
-        <v>1</v>
-      </c>
-      <c r="R40" s="56">
+      <c r="Q40" s="55"/>
+      <c r="R40" s="52">
+        <v>1</v>
+      </c>
+      <c r="S40" s="54">
         <v>6</v>
       </c>
-      <c r="U40" s="54" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V40" s="52" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>139</v>
       </c>
@@ -6963,33 +7112,35 @@
       <c r="I41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="53" t="s">
+      <c r="J41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K41" s="56" t="s">
+      <c r="K41" s="54" t="s">
         <v>293</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M41" s="3">
+        <v>312</v>
+      </c>
+      <c r="M41" s="67">
         <v>2022</v>
       </c>
       <c r="P41" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q41" s="54"/>
-      <c r="U41" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="X41" s="3">
-        <v>1</v>
+      <c r="Q41" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="V41" s="52" t="s">
+        <v>320</v>
       </c>
       <c r="Y41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>142</v>
       </c>
@@ -7014,35 +7165,38 @@
       <c r="I42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="53" t="s">
+      <c r="J42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K42" s="56" t="s">
+      <c r="K42" s="54" t="s">
         <v>293</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M42" s="3">
+        <v>312</v>
+      </c>
+      <c r="M42" s="67">
         <v>2022</v>
       </c>
-      <c r="P42" s="58" t="s">
+      <c r="P42" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="Q42" s="54">
+      <c r="Q42" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="R42" s="52">
         <v>9</v>
       </c>
-      <c r="R42" s="3">
-        <v>1</v>
-      </c>
-      <c r="U42" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S42" s="3">
+        <v>1</v>
+      </c>
+      <c r="V42" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>145</v>
       </c>
@@ -7070,30 +7224,32 @@
       <c r="I43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="53" t="s">
+      <c r="J43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="56" t="s">
+      <c r="K43" s="54" t="s">
         <v>293</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M43" s="3">
+        <v>312</v>
+      </c>
+      <c r="M43" s="67">
         <v>2022</v>
       </c>
       <c r="P43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q43" s="54"/>
-      <c r="U43" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="W43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q43" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="V43" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>148</v>
       </c>
@@ -7121,35 +7277,38 @@
       <c r="I44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="53" t="s">
+      <c r="J44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K44" s="54" t="s">
+      <c r="K44" s="52" t="s">
         <v>292</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M44" s="3">
+        <v>312</v>
+      </c>
+      <c r="M44" s="67">
         <v>2022</v>
       </c>
       <c r="P44" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q44" s="54">
+      <c r="Q44" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="R44" s="52">
         <v>16</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3</v>
       </c>
-      <c r="U44" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V44" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>151</v>
       </c>
@@ -7177,35 +7336,35 @@
       <c r="I45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="53" t="s">
+      <c r="J45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K45" s="54" t="s">
+      <c r="K45" s="52" t="s">
         <v>292</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M45" s="3">
+        <v>312</v>
+      </c>
+      <c r="M45" s="67">
         <v>2022</v>
       </c>
       <c r="P45" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q45" s="54">
+      <c r="Q45" s="64" t="s">
+        <v>345</v>
+      </c>
+      <c r="R45" s="52">
         <v>14</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2</v>
       </c>
-      <c r="U45" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="W45" s="3">
-        <v>1</v>
+      <c r="V45" s="52" t="s">
+        <v>320</v>
       </c>
       <c r="X45" s="3">
         <v>1</v>
@@ -7213,8 +7372,11 @@
       <c r="Y45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>164</v>
       </c>
@@ -7242,32 +7404,32 @@
       <c r="I46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J46" s="53" t="s">
+      <c r="J46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K46" s="56" t="s">
+      <c r="K46" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="L46" s="56" t="s">
+      <c r="L46" s="54" t="s">
         <v>296</v>
       </c>
       <c r="M46" s="10">
         <v>2017</v>
       </c>
       <c r="N46" s="13"/>
-      <c r="O46" s="61"/>
+      <c r="O46" s="59"/>
       <c r="P46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q46" s="54"/>
-      <c r="U46" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q46" s="70"/>
+      <c r="V46" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>155</v>
       </c>
@@ -7295,32 +7457,35 @@
       <c r="I47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J47" s="53" t="s">
+      <c r="J47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K47" s="56" t="s">
+      <c r="K47" s="54" t="s">
         <v>293</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M47" s="3">
+        <v>312</v>
+      </c>
+      <c r="M47" s="67">
         <v>2022</v>
       </c>
       <c r="P47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="54">
+      <c r="Q47" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="R47" s="52">
         <v>6</v>
       </c>
-      <c r="U47" s="54" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V47" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>158</v>
       </c>
@@ -7348,35 +7513,38 @@
       <c r="I48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J48" s="53" t="s">
+      <c r="J48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K48" s="54" t="s">
+      <c r="K48" s="52" t="s">
         <v>292</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M48" s="3">
+        <v>312</v>
+      </c>
+      <c r="M48" s="67">
         <v>2022</v>
       </c>
-      <c r="P48" s="58" t="s">
+      <c r="P48" s="56" t="s">
         <v>305</v>
       </c>
-      <c r="Q48" s="54">
+      <c r="Q48" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="R48" s="52">
         <v>24</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4</v>
       </c>
-      <c r="U48" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V48" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>161</v>
       </c>
@@ -7404,30 +7572,31 @@
       <c r="I49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="53" t="s">
+      <c r="J49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="54" t="s">
+      <c r="K49" s="52" t="s">
         <v>292</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M49" s="10">
         <v>2017</v>
       </c>
       <c r="N49" s="13"/>
-      <c r="O49" s="61"/>
+      <c r="O49" s="59"/>
       <c r="P49" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q49" s="54">
+      <c r="Q49" s="10"/>
+      <c r="R49" s="52">
         <v>6</v>
       </c>
-      <c r="U49" s="67" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="V49" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z49" s="3">
         <v>1</v>
       </c>
     </row>
@@ -7513,13 +7682,13 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7974,10 +8143,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E475B9F-41DE-453B-92B0-16661F334DF3}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8015,10 +8184,10 @@
       <c r="B3" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="60" t="s">
         <v>215</v>
       </c>
     </row>
@@ -8026,7 +8195,7 @@
       <c r="B4" t="s">
         <v>201</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="66" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8037,56 +8206,65 @@
       <c r="B5" t="s">
         <v>203</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="72" t="s">
         <v>306</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>318</v>
+      <c r="C6" s="63" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>316</v>
+      <c r="C7" s="63" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>175</v>
       </c>
-      <c r="C8" t="s">
-        <v>319</v>
+      <c r="C8" s="63" t="s">
+        <v>315</v>
       </c>
       <c r="L8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="M9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>174</v>
       </c>
-      <c r="C10" t="s">
-        <v>320</v>
+      <c r="C10" s="63" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="60" t="s">
         <v>214</v>
+      </c>
+      <c r="L11" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -8096,6 +8274,9 @@
       <c r="B12" t="s">
         <v>206</v>
       </c>
+      <c r="L12" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -8106,64 +8287,88 @@
       <c r="A14" t="s">
         <v>179</v>
       </c>
-      <c r="D14" t="s">
-        <v>214</v>
+      <c r="D14" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="L14" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>330</v>
+      <c r="L16" s="61" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>195</v>
+      <c r="E17" s="60" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>208</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="62" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="62" t="s">
-        <v>314</v>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="61" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="63" t="s">
-        <v>307</v>
+      <c r="B29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="60" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -8390,20 +8595,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="52ea4a7c-6901-4db7-900e-b45097d0ff93" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="52ea4a7c-6901-4db7-900e-b45097d0ff93" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8426,14 +8631,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACF7FD7-0294-44CF-A08E-BCEC28737BB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBDA711-F404-4C5B-BB2C-544733B5993A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8441,4 +8638,12 @@
     <ds:schemaRef ds:uri="52ea4a7c-6901-4db7-900e-b45097d0ff93"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BACF7FD7-0294-44CF-A08E-BCEC28737BB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>